--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -8274,10 +8274,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -11690,10 +11690,10 @@
   <dimension ref="A1:F709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B398" sqref="B398"/>
+      <selection pane="bottomRight" activeCell="A404" sqref="A404:XFD404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16031,7 +16031,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" s="10" customFormat="1">
       <c r="A404" s="11" t="s">
         <v>2687</v>
       </c>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="820" windowWidth="25040" windowHeight="15500" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="4760" yWindow="1300" windowWidth="25080" windowHeight="15500" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="management_fk" sheetId="16" r:id="rId17"/>
     <sheet name="clima_data_source_fk" sheetId="18" r:id="rId18"/>
     <sheet name="clima_param_fk" sheetId="19" r:id="rId19"/>
+    <sheet name="meas_param_fk" sheetId="20" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="tblStreet">OFFSET([1]DropLists!$O$2,1,0,COUNTA([1]DropLists!$O:$O),-1)</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="2689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="2888">
   <si>
     <t>Country</t>
   </si>
@@ -8082,9 +8083,6 @@
     <t>wood_type</t>
   </si>
   <si>
-    <t>leave_habit</t>
-  </si>
-  <si>
     <t>wood_plane</t>
   </si>
   <si>
@@ -8110,13 +8108,670 @@
   </si>
   <si>
     <t>Picea obovata</t>
+  </si>
+  <si>
+    <t>ring-porous</t>
+  </si>
+  <si>
+    <t>leaf_habit</t>
+  </si>
+  <si>
+    <t>Universidad de Valladolid</t>
+  </si>
+  <si>
+    <t>INRA Nancy</t>
+  </si>
+  <si>
+    <t>CSIRO</t>
+  </si>
+  <si>
+    <t>Monash University</t>
+  </si>
+  <si>
+    <t>Uni Coimbra</t>
+  </si>
+  <si>
+    <t>Uni Erlangen</t>
+  </si>
+  <si>
+    <t>ETHZ</t>
+  </si>
+  <si>
+    <t>GFZ</t>
+  </si>
+  <si>
+    <t>Korea Forest Research Institute</t>
+  </si>
+  <si>
+    <t>CREAF</t>
+  </si>
+  <si>
+    <t>Campus Duques de Soria</t>
+  </si>
+  <si>
+    <t>Centre INRA de Nancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private Bag 12</t>
+  </si>
+  <si>
+    <t>Vic. 3800</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Wetterkreuz 15</t>
+  </si>
+  <si>
+    <t>Universitaetstrasse 16</t>
+  </si>
+  <si>
+    <t>Telegrafenberg</t>
+  </si>
+  <si>
+    <t>Pavillon Abitibi-Price 2405 rue de la Terrasse</t>
+  </si>
+  <si>
+    <t>57 Hoegiro Dongdaemun-gu</t>
+  </si>
+  <si>
+    <t>Cerdanyola del Valle`s</t>
+  </si>
+  <si>
+    <t>Grisebachstrasse 1</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>Abakan</t>
+  </si>
+  <si>
+    <t>Champenoux</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Coimbra</t>
+  </si>
+  <si>
+    <t>Erlangen</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Potsdam</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Goettingen</t>
+  </si>
+  <si>
+    <t>Kakass Technical Institute, Siberian Federal University</t>
+  </si>
+  <si>
+    <t>Shchetinkina 27</t>
+  </si>
+  <si>
+    <t>KakTI</t>
+  </si>
+  <si>
+    <t>INRAN</t>
+  </si>
+  <si>
+    <t>UniVa</t>
+  </si>
+  <si>
+    <t>Commonwealth Scientific and Industrial Research Organisation</t>
+  </si>
+  <si>
+    <t>Swiss Federal Institutes of Technology</t>
+  </si>
+  <si>
+    <t>Institute of Terrestrial Ecosystems</t>
+  </si>
+  <si>
+    <t>KFRI</t>
+  </si>
+  <si>
+    <t>UniCh</t>
+  </si>
+  <si>
+    <t>Universite du Quebec a Chicoutimi</t>
+  </si>
+  <si>
+    <t>UniEr</t>
+  </si>
+  <si>
+    <t>UniCo</t>
+  </si>
+  <si>
+    <t>UniMo</t>
+  </si>
+  <si>
+    <t>German Research Centre for Geosciences</t>
+  </si>
+  <si>
+    <t>UniGo</t>
+  </si>
+  <si>
+    <t>Ecological and Forestry Applications Research Centre</t>
+  </si>
+  <si>
+    <t>IPE</t>
+  </si>
+  <si>
+    <t>Pyrenean Institute of Ecology - CSIC</t>
+  </si>
+  <si>
+    <t>UniWa</t>
+  </si>
+  <si>
+    <t>Wageningen</t>
+  </si>
+  <si>
+    <t>WUR</t>
+  </si>
+  <si>
+    <t>Wageningen University and Research</t>
+  </si>
+  <si>
+    <t>6708 PB</t>
+  </si>
+  <si>
+    <t>Forest ecology and Forest Management</t>
+  </si>
+  <si>
+    <t>UniGr</t>
+  </si>
+  <si>
+    <t>University of Greifswald</t>
+  </si>
+  <si>
+    <t>Landschaftsökologie und Ökosystemdynamik</t>
+  </si>
+  <si>
+    <t>Soldmannstraße 15</t>
+  </si>
+  <si>
+    <t>Greifswald</t>
+  </si>
+  <si>
+    <t>AMU</t>
+  </si>
+  <si>
+    <t>Adam Mickiewicz University</t>
+  </si>
+  <si>
+    <t>Institute of Geoecology and Geoinformation</t>
+  </si>
+  <si>
+    <t>Poznan</t>
+  </si>
+  <si>
+    <t>ul. Wieniawskiego 1</t>
+  </si>
+  <si>
+    <t>61-712</t>
+  </si>
+  <si>
+    <t>Avda. Montañana 100, Apdo. 202</t>
+  </si>
+  <si>
+    <t>Institute of Geography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warsaw </t>
+  </si>
+  <si>
+    <t>02-787</t>
+  </si>
+  <si>
+    <t>Warsaw University of Life Sciences – SGGW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Forest Botany </t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Department of Physical Geography and Geoecology</t>
+  </si>
+  <si>
+    <t>Charles University</t>
+  </si>
+  <si>
+    <t>Albertov 6</t>
+  </si>
+  <si>
+    <t>UniPr</t>
+  </si>
+  <si>
+    <t>UniHo</t>
+  </si>
+  <si>
+    <t>Institute of Botany</t>
+  </si>
+  <si>
+    <t>University of Hohenheim</t>
+  </si>
+  <si>
+    <t>Garbenstraße 30</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Tree-ring Laboratory</t>
+  </si>
+  <si>
+    <t>Lamont-Doherty Earth Observatory of Columbia University</t>
+  </si>
+  <si>
+    <t>NY 10964</t>
+  </si>
+  <si>
+    <t>Palisades</t>
+  </si>
+  <si>
+    <t>61 Route 9 W</t>
+  </si>
+  <si>
+    <t>TRL</t>
+  </si>
+  <si>
+    <t>Universidade de Santiago de Compostela</t>
+  </si>
+  <si>
+    <t>UniSa</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Departamento de Botánica, Escola Politécnica Superior de Lugo</t>
+  </si>
+  <si>
+    <t>Campus terra</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>TUM</t>
+  </si>
+  <si>
+    <t>Department of Ecology and Ecosystem Management, Ecoclimatology</t>
+  </si>
+  <si>
+    <t>Technische Universität München</t>
+  </si>
+  <si>
+    <t>Hans-Carl-von-Carlowitz-Platz 2</t>
+  </si>
+  <si>
+    <t>Freising</t>
+  </si>
+  <si>
+    <t>Dlab</t>
+  </si>
+  <si>
+    <t>University of Nevada</t>
+  </si>
+  <si>
+    <t>DendroLab</t>
+  </si>
+  <si>
+    <t>Reno</t>
+  </si>
+  <si>
+    <t>BOKU</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>University of Natural Resources and Life Sciences, Vienna</t>
+  </si>
+  <si>
+    <t>UniNa</t>
+  </si>
+  <si>
+    <t>Department of Agricultural Sciences</t>
+  </si>
+  <si>
+    <t>University of Naples Federico II</t>
+  </si>
+  <si>
+    <t>Via Universita 100</t>
+  </si>
+  <si>
+    <t>Portici</t>
+  </si>
+  <si>
+    <t>Department of Environmental, Biological and Pharmaceutical Sciences and Technologies</t>
+  </si>
+  <si>
+    <t>Caserta</t>
+  </si>
+  <si>
+    <t>Via Vivaldi 43</t>
+  </si>
+  <si>
+    <t>Second University of Naples</t>
+  </si>
+  <si>
+    <t>UniN2</t>
+  </si>
+  <si>
+    <t>LSFRI</t>
+  </si>
+  <si>
+    <t>Rigas str. 111</t>
+  </si>
+  <si>
+    <t>Salaspils</t>
+  </si>
+  <si>
+    <t>LV2169</t>
+  </si>
+  <si>
+    <t>LSFRI “Silava”</t>
+  </si>
+  <si>
+    <t>INRA UMR Bordeaux</t>
+  </si>
+  <si>
+    <t>71 Avenue Edouard Bourleaux</t>
+  </si>
+  <si>
+    <t>Villenave d'Ornon</t>
+  </si>
+  <si>
+    <t>INRAB</t>
+  </si>
+  <si>
+    <t>Albrecht von Haller Institute of Plant Sciences</t>
+  </si>
+  <si>
+    <t>Georg August University of Göttingen</t>
+  </si>
+  <si>
+    <t>Department of Wood Science and Technology</t>
+  </si>
+  <si>
+    <t>University of Teheran</t>
+  </si>
+  <si>
+    <t>UniTe</t>
+  </si>
+  <si>
+    <t>Karaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box </t>
+  </si>
+  <si>
+    <t>31585-4314</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>asp</t>
+  </si>
+  <si>
+    <t>majax</t>
+  </si>
+  <si>
+    <t>nbrno</t>
+  </si>
+  <si>
+    <t>nbrdst</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>lum</t>
+  </si>
+  <si>
+    <t>drad</t>
+  </si>
+  <si>
+    <t>dtan</t>
+  </si>
+  <si>
+    <t>ldrad</t>
+  </si>
+  <si>
+    <t>ldtan</t>
+  </si>
+  <si>
+    <t>cwtpi</t>
+  </si>
+  <si>
+    <t>cwtba</t>
+  </si>
+  <si>
+    <t>cwtle</t>
+  </si>
+  <si>
+    <t>cwtri</t>
+  </si>
+  <si>
+    <t>cwttan</t>
+  </si>
+  <si>
+    <t>cwtrad</t>
+  </si>
+  <si>
+    <t>cwa</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>double_cwtrad</t>
+  </si>
+  <si>
+    <t>CWTpi   -   Thickness of inner cell wall (facing towards pith) [microns]; negative value: the value is &gt; than a times the value on the opposite cell size, a being the Quality Control factor; Error code: -999 - wall thickness could not be calculated</t>
+  </si>
+  <si>
+    <t>CWTba   -   Thickness of outer cell wall (facing towards bark) [microns]; negative value: the value is &gt; than a times the value on the opposite cell size, a being the Quality Control factor; Error code: -999 - wall thickness could not be calculated</t>
+  </si>
+  <si>
+    <t>CWTle   -   Thickness of left cell wall (viewed from pith) [microns]; ATTENTION: often includes artefact from pit-pore associated widening! negative value: the value is &gt; than a times the value on the opposite cell size, a being the Quality Control factor; Error code: -999 - wall thickness could not be calculated</t>
+  </si>
+  <si>
+    <t>CWTri   -   Thickness of right cell wall (viewed from pith) [microns]; ATTENTION: often includes artefact from pit-pore associated widening! negative value: the value is &gt; than a times the value on the opposite cell size, a being the Quality Control factor; Error code: -999 - wall thickness could not be calculated</t>
+  </si>
+  <si>
+    <t>CWTtan   -   Thickness of tangential cell walls ([CWTpi+CWTba]/2) [microns]; Error code: -999 - wall thickness could not be calculated</t>
+  </si>
+  <si>
+    <t>CWTrad   -   Thickness of radial cell walls ([CWTle+CWTri]/2) [microns]; ATTENTION: often includes artefact from pit-pore associated widening! Error code: -999 - wall thickness could not be calculated</t>
+  </si>
+  <si>
+    <t>CWTall   -   Thickness of all cell walls ([CWTrad+CWTtan]/2) [microns]; Error code: -999 - wall thickness could not be calculated</t>
+  </si>
+  <si>
+    <t>rTSR   -   Radial Thickness to span ratio, Mork's index (see Denne MP. 1989. Definition of latewood according to Mork (1928&lt;9. IAWA Bulletin 10(1): 59-62): ratio between 4x single cell wall thickness (CWTtan) and tracheid diameter in radial direction (pith to bark); Error code: -999 - no value calculated because one of the factors was missing</t>
+  </si>
+  <si>
+    <t>cTSR   -   Circular Thickness to span ratio: ratio between 4x single cell wall thickness (CWTall) and tracheid diameter (assuming a circle area-equivalent to the lumen area); Error code: -999 - no value calculated because one of the factors was missing</t>
+  </si>
+  <si>
+    <t>CRI   -   Cell reinforcement index (t/b)2. t is the double cell wall thickness and b the length of the same cell wall; the smaller of the radial or tangential values is selected; Error code: -999 - no value calculated because one of the factors was missing. Hacke, U.G., Sperry, J.S., Pockman, W.T., Davis, S.D., and Mcculloh, K.A. (2001). Trends in wood density and structure are linked to prevention of xylem implosion by negative pressure. Oecologia 126, 457-461</t>
+  </si>
+  <si>
+    <t>CWA   -   Cell wall area [microns]; negative value: any of the individual walls has a flagged value &lt; 0; Error code: -999 - wall area could not be calculated</t>
+  </si>
+  <si>
+    <t>RWD   -   Relative anatomical cell density (CWA / (CWA+CA)); negative value: any of the individual walls has a flagged value &lt; 0; Error code: -999 - wall area could not be calculated</t>
+  </si>
+  <si>
+    <t>cwt</t>
+  </si>
+  <si>
+    <t>cri</t>
+  </si>
+  <si>
+    <t>RadDistR   - Radial distance of cell center from inner ring boundary [microns]</t>
+  </si>
+  <si>
+    <t>RRadDistR   -   Relative radial position of cell center within annual ring [%]. 0.00 - at proximal boundary; 99.99 - at distal boundary</t>
+  </si>
+  <si>
+    <t>NbrNo   -   Number of cells in group the target cell is part of</t>
+  </si>
+  <si>
+    <t>MajAx   -   Absolute angular deviation of major cell axis from line towards the X/Y origin [°]</t>
+  </si>
+  <si>
+    <t>Asp   -   Aspect of cell: Ratio between major axis and minor axis of ellipse equivalent to object</t>
+  </si>
+  <si>
+    <t>NbrDst   -   Euclidean distance between cell lumina outlines of all cells belonging to the same group as target cell (remains blank of target cell is solitary); assuming that major cell axis are facing each other in a straight line</t>
+  </si>
+  <si>
+    <t>microns</t>
+  </si>
+  <si>
+    <t>microns2</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>rdist</t>
+  </si>
+  <si>
+    <t>rtsr</t>
+  </si>
+  <si>
+    <t>ctsr</t>
+  </si>
+  <si>
+    <t>rw_d</t>
+  </si>
+  <si>
+    <t>bl_d</t>
+  </si>
+  <si>
+    <t>xray_d</t>
+  </si>
+  <si>
+    <t>silviscan_d</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Drad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -   Radial cell lumen diameter (measured vertically in linear samples and towards origin (pith) in circular samples) [microns]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dtan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -   Tangential cell lumen diameter (measured vertically in linear samples and towards origin (pith) in circular samples) [microns]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -   Cell size [microns2]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CD=((4*CWTRAD)/RTSR) + 2*CWTRAD </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8184,8 +8839,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8198,6 +8871,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8208,7 +8887,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -8255,8 +8934,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -8278,8 +8995,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -8321,6 +9048,44 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -8702,7 +9467,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A107" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -11560,7 +12325,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11629,7 +12394,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11676,6 +12441,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11690,10 +12456,10 @@
   <dimension ref="A1:F709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A404" sqref="A404:XFD404"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11717,10 +12483,10 @@
         <v>2678</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2679</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2680</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11745,13 +12511,13 @@
         <v>2066</v>
       </c>
       <c r="D3" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E3" t="s">
         <v>2681</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2682</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -12229,13 +12995,13 @@
         <v>2107</v>
       </c>
       <c r="D47" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E47" t="s">
         <v>2685</v>
       </c>
-      <c r="E47" t="s">
-        <v>2686</v>
-      </c>
       <c r="F47" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -12932,7 +13698,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
         <v>887</v>
       </c>
@@ -12943,7 +13709,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
         <v>889</v>
       </c>
@@ -12954,7 +13720,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
         <v>891</v>
       </c>
@@ -12965,7 +13731,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:6">
       <c r="A116" s="8" t="s">
         <v>893</v>
       </c>
@@ -12976,7 +13742,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:6">
       <c r="A117" s="8" t="s">
         <v>895</v>
       </c>
@@ -12987,7 +13753,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:6">
       <c r="A118" s="8" t="s">
         <v>897</v>
       </c>
@@ -12998,7 +13764,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:6">
       <c r="A119" s="8" t="s">
         <v>899</v>
       </c>
@@ -13009,15 +13775,24 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="10" customFormat="1">
+    <row r="120" spans="1:6" s="10" customFormat="1">
       <c r="A120" s="9" t="s">
         <v>901</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="8" t="s">
         <v>903</v>
       </c>
@@ -13028,7 +13803,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
         <v>905</v>
       </c>
@@ -13039,7 +13814,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:6">
       <c r="A123" s="8" t="s">
         <v>907</v>
       </c>
@@ -13050,7 +13825,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:6">
       <c r="A124" s="8" t="s">
         <v>909</v>
       </c>
@@ -13061,7 +13836,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:6">
       <c r="A125" s="8" t="s">
         <v>911</v>
       </c>
@@ -13072,7 +13847,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:6">
       <c r="A126" s="8" t="s">
         <v>913</v>
       </c>
@@ -13080,7 +13855,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:6">
       <c r="A127" s="8" t="s">
         <v>915</v>
       </c>
@@ -13091,7 +13866,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:6">
       <c r="A128" s="8" t="s">
         <v>917</v>
       </c>
@@ -13275,7 +14050,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:6">
       <c r="A145" s="8" t="s">
         <v>951</v>
       </c>
@@ -13286,7 +14061,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:6">
       <c r="A146" s="8" t="s">
         <v>953</v>
       </c>
@@ -13297,7 +14072,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:6">
       <c r="A147" s="8" t="s">
         <v>955</v>
       </c>
@@ -13308,7 +14083,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:6">
       <c r="A148" s="8" t="s">
         <v>957</v>
       </c>
@@ -13319,7 +14094,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:6">
       <c r="A149" s="8" t="s">
         <v>959</v>
       </c>
@@ -13330,7 +14105,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:6">
       <c r="A150" s="8" t="s">
         <v>961</v>
       </c>
@@ -13341,7 +14116,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="10" customFormat="1">
+    <row r="151" spans="1:6" s="10" customFormat="1">
       <c r="A151" s="9" t="s">
         <v>963</v>
       </c>
@@ -13351,8 +14126,17 @@
       <c r="C151" s="10" t="s">
         <v>2197</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="8" t="s">
         <v>965</v>
       </c>
@@ -13363,7 +14147,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:6">
       <c r="A153" s="8" t="s">
         <v>967</v>
       </c>
@@ -13374,7 +14158,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:6">
       <c r="A154" s="8" t="s">
         <v>969</v>
       </c>
@@ -13385,7 +14169,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:6">
       <c r="A155" s="8" t="s">
         <v>971</v>
       </c>
@@ -13396,7 +14180,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:6">
       <c r="A156" s="8" t="s">
         <v>973</v>
       </c>
@@ -13407,7 +14191,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:6">
       <c r="A157" s="8" t="s">
         <v>975</v>
       </c>
@@ -13418,7 +14202,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:6">
       <c r="A158" s="8" t="s">
         <v>977</v>
       </c>
@@ -13429,7 +14213,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:6">
       <c r="A159" s="8" t="s">
         <v>979</v>
       </c>
@@ -13437,7 +14221,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:6">
       <c r="A160" s="8" t="s">
         <v>981</v>
       </c>
@@ -14289,7 +15073,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:6">
       <c r="A241" s="8" t="s">
         <v>1140</v>
       </c>
@@ -14300,7 +15084,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:6">
       <c r="A242" s="8" t="s">
         <v>1142</v>
       </c>
@@ -14311,7 +15095,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:6">
       <c r="A243" s="8" t="s">
         <v>1144</v>
       </c>
@@ -14322,7 +15106,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:6">
       <c r="A244" s="8" t="s">
         <v>1146</v>
       </c>
@@ -14333,7 +15117,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:6">
       <c r="A245" s="8" t="s">
         <v>1148</v>
       </c>
@@ -14344,7 +15128,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:6">
       <c r="A246" s="8" t="s">
         <v>1150</v>
       </c>
@@ -14355,7 +15139,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="247" spans="1:3" s="10" customFormat="1">
+    <row r="247" spans="1:6" s="10" customFormat="1">
       <c r="A247" s="9" t="s">
         <v>643</v>
       </c>
@@ -14365,8 +15149,17 @@
       <c r="C247" s="10" t="s">
         <v>2278</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" s="10" customFormat="1">
+      <c r="D247" s="13" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F247" s="13" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="10" customFormat="1">
       <c r="A248" s="9" t="s">
         <v>1153</v>
       </c>
@@ -14376,8 +15169,17 @@
       <c r="C248" s="10" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" s="13" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="8" t="s">
         <v>1155</v>
       </c>
@@ -14388,7 +15190,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:6">
       <c r="A250" s="8" t="s">
         <v>1157</v>
       </c>
@@ -14399,7 +15201,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:6">
       <c r="A251" s="8" t="s">
         <v>1159</v>
       </c>
@@ -14410,7 +15212,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:6">
       <c r="A252" s="8" t="s">
         <v>1161</v>
       </c>
@@ -14421,7 +15223,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:6">
       <c r="A253" s="8" t="s">
         <v>1163</v>
       </c>
@@ -14432,7 +15234,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:6">
       <c r="A254" s="8" t="s">
         <v>1165</v>
       </c>
@@ -14443,7 +15245,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:6">
       <c r="A255" s="8" t="s">
         <v>1167</v>
       </c>
@@ -14454,7 +15256,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:6">
       <c r="A256" s="8" t="s">
         <v>1169</v>
       </c>
@@ -14987,7 +15789,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:6">
       <c r="A305" s="8" t="s">
         <v>1266</v>
       </c>
@@ -14995,7 +15797,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:6">
       <c r="A306" s="8" t="s">
         <v>1268</v>
       </c>
@@ -15003,7 +15805,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="10" customFormat="1">
+    <row r="307" spans="1:6" s="10" customFormat="1">
       <c r="A307" s="9" t="s">
         <v>1270</v>
       </c>
@@ -15013,8 +15815,17 @@
       <c r="C307" s="10" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="D307" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E307" s="13" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F307" s="13" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="8" t="s">
         <v>1272</v>
       </c>
@@ -15025,7 +15836,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:6">
       <c r="A309" s="8" t="s">
         <v>1274</v>
       </c>
@@ -15036,7 +15847,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:6">
       <c r="A310" s="8" t="s">
         <v>1276</v>
       </c>
@@ -15047,7 +15858,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:6">
       <c r="A311" s="8" t="s">
         <v>1278</v>
       </c>
@@ -15055,7 +15866,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:6">
       <c r="A312" s="8" t="s">
         <v>1280</v>
       </c>
@@ -15066,7 +15877,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:6">
       <c r="A313" s="8" t="s">
         <v>1282</v>
       </c>
@@ -15074,7 +15885,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:6">
       <c r="A314" s="8" t="s">
         <v>1284</v>
       </c>
@@ -15085,7 +15896,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:6">
       <c r="A315" s="8" t="s">
         <v>1286</v>
       </c>
@@ -15093,7 +15904,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:6">
       <c r="A316" s="8" t="s">
         <v>1288</v>
       </c>
@@ -15104,7 +15915,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:6">
       <c r="A317" s="8" t="s">
         <v>1290</v>
       </c>
@@ -15115,7 +15926,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:6">
       <c r="A318" s="8" t="s">
         <v>1292</v>
       </c>
@@ -15126,7 +15937,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:6">
       <c r="A319" s="8" t="s">
         <v>1294</v>
       </c>
@@ -15137,7 +15948,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:6">
       <c r="A320" s="8" t="s">
         <v>1296</v>
       </c>
@@ -15148,7 +15959,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="10" customFormat="1">
+    <row r="321" spans="1:6" s="10" customFormat="1">
       <c r="A321" s="9" t="s">
         <v>510</v>
       </c>
@@ -15158,8 +15969,17 @@
       <c r="C321" s="10" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" s="10" customFormat="1">
+      <c r="D321" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E321" s="13" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F321" s="13" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" s="10" customFormat="1">
       <c r="A322" s="9" t="s">
         <v>1299</v>
       </c>
@@ -15169,8 +15989,17 @@
       <c r="C322" s="10" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E322" s="13" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F322" s="13" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" s="8" t="s">
         <v>1301</v>
       </c>
@@ -15181,7 +16010,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:6">
       <c r="A324" s="8" t="s">
         <v>1303</v>
       </c>
@@ -15192,7 +16021,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:6">
       <c r="A325" s="8" t="s">
         <v>1305</v>
       </c>
@@ -15203,7 +16032,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:6">
       <c r="A326" s="8" t="s">
         <v>1307</v>
       </c>
@@ -15214,7 +16043,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:6">
       <c r="A327" s="8" t="s">
         <v>1309</v>
       </c>
@@ -15225,7 +16054,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:6">
       <c r="A328" s="8" t="s">
         <v>1311</v>
       </c>
@@ -15236,7 +16065,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="10" customFormat="1">
+    <row r="329" spans="1:6" s="10" customFormat="1">
       <c r="A329" s="9" t="s">
         <v>511</v>
       </c>
@@ -15246,8 +16075,17 @@
       <c r="C329" s="10" t="s">
         <v>2351</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E329" s="13" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F329" s="13" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" s="8" t="s">
         <v>1314</v>
       </c>
@@ -15258,7 +16096,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:6">
       <c r="A331" s="8" t="s">
         <v>1316</v>
       </c>
@@ -15269,7 +16107,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:6">
       <c r="A332" s="8" t="s">
         <v>1318</v>
       </c>
@@ -15280,7 +16118,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:6">
       <c r="A333" s="8" t="s">
         <v>1320</v>
       </c>
@@ -15291,7 +16129,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:6">
       <c r="A334" s="8" t="s">
         <v>1322</v>
       </c>
@@ -15302,7 +16140,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:6">
       <c r="A335" s="8" t="s">
         <v>1324</v>
       </c>
@@ -15313,7 +16151,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:6">
       <c r="A336" s="8" t="s">
         <v>1326</v>
       </c>
@@ -15834,7 +16672,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:6">
       <c r="A385" s="8" t="s">
         <v>1424</v>
       </c>
@@ -15845,7 +16683,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:6">
       <c r="A386" s="8" t="s">
         <v>1426</v>
       </c>
@@ -15853,7 +16691,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:6">
       <c r="A387" s="8" t="s">
         <v>1428</v>
       </c>
@@ -15864,7 +16702,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:6">
       <c r="A388" s="8" t="s">
         <v>1430</v>
       </c>
@@ -15875,7 +16713,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:6">
       <c r="A389" s="8" t="s">
         <v>1432</v>
       </c>
@@ -15886,7 +16724,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:6">
       <c r="A390" s="8" t="s">
         <v>1434</v>
       </c>
@@ -15897,7 +16735,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:6">
       <c r="A391" s="8" t="s">
         <v>1436</v>
       </c>
@@ -15908,7 +16746,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="392" spans="1:3" s="10" customFormat="1">
+    <row r="392" spans="1:6" s="10" customFormat="1">
       <c r="A392" s="9" t="s">
         <v>1438</v>
       </c>
@@ -15918,8 +16756,17 @@
       <c r="C392" s="10" t="s">
         <v>2405</v>
       </c>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="D392" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E392" s="13" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F392" s="13" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393" s="8" t="s">
         <v>1440</v>
       </c>
@@ -15930,7 +16777,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:6">
       <c r="A394" s="8" t="s">
         <v>1442</v>
       </c>
@@ -15938,7 +16785,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:6">
       <c r="A395" s="8" t="s">
         <v>1444</v>
       </c>
@@ -15946,7 +16793,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:6">
       <c r="A396" s="8" t="s">
         <v>1446</v>
       </c>
@@ -15954,7 +16801,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:6">
       <c r="A397" s="8" t="s">
         <v>1448</v>
       </c>
@@ -15965,7 +16812,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:6">
       <c r="A398" s="8" t="s">
         <v>1450</v>
       </c>
@@ -15976,7 +16823,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:6">
       <c r="A399" s="8" t="s">
         <v>1452</v>
       </c>
@@ -15987,7 +16834,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:6">
       <c r="A400" s="8" t="s">
         <v>1454</v>
       </c>
@@ -15998,7 +16845,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:6">
       <c r="A401" s="8" t="s">
         <v>1456</v>
       </c>
@@ -16009,7 +16856,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:6">
       <c r="A402" s="8" t="s">
         <v>1458</v>
       </c>
@@ -16020,7 +16867,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:6">
       <c r="A403" s="8" t="s">
         <v>1460</v>
       </c>
@@ -16031,15 +16878,24 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="404" spans="1:3" s="10" customFormat="1">
+    <row r="404" spans="1:6" s="10" customFormat="1">
       <c r="A404" s="11" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B404" s="12" t="s">
         <v>2687</v>
       </c>
-      <c r="B404" s="12" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
+      <c r="D404" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E404" s="13" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F404" s="13" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405" s="8" t="s">
         <v>1462</v>
       </c>
@@ -16050,7 +16906,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:6">
       <c r="A406" s="8" t="s">
         <v>1464</v>
       </c>
@@ -16061,7 +16917,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:6">
       <c r="A407" s="8" t="s">
         <v>1466</v>
       </c>
@@ -16072,7 +16928,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:6">
       <c r="A408" s="8" t="s">
         <v>1468</v>
       </c>
@@ -16080,7 +16936,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:6">
       <c r="A409" s="8" t="s">
         <v>1470</v>
       </c>
@@ -16091,7 +16947,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:6">
       <c r="A410" s="8" t="s">
         <v>1472</v>
       </c>
@@ -16102,7 +16958,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:6">
       <c r="A411" s="8" t="s">
         <v>1474</v>
       </c>
@@ -16113,7 +16969,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:6">
       <c r="A412" s="8" t="s">
         <v>1476</v>
       </c>
@@ -16124,7 +16980,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:6">
       <c r="A413" s="8" t="s">
         <v>1478</v>
       </c>
@@ -16135,7 +16991,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:6">
       <c r="A414" s="8" t="s">
         <v>1480</v>
       </c>
@@ -16146,7 +17002,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:6">
       <c r="A415" s="8" t="s">
         <v>1482</v>
       </c>
@@ -16157,7 +17013,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:6">
       <c r="A416" s="8" t="s">
         <v>1484</v>
       </c>
@@ -16693,7 +17549,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:6">
       <c r="A465" s="8" t="s">
         <v>1582</v>
       </c>
@@ -16704,7 +17560,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:6">
       <c r="A466" s="8" t="s">
         <v>1584</v>
       </c>
@@ -16715,7 +17571,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:6">
       <c r="A467" s="8" t="s">
         <v>1586</v>
       </c>
@@ -16726,7 +17582,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:6">
       <c r="A468" s="8" t="s">
         <v>1588</v>
       </c>
@@ -16737,7 +17593,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:6">
       <c r="A469" s="8" t="s">
         <v>1590</v>
       </c>
@@ -16748,7 +17604,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:6">
       <c r="A470" s="8" t="s">
         <v>1592</v>
       </c>
@@ -16759,7 +17615,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:6">
       <c r="A471" s="8" t="s">
         <v>1594</v>
       </c>
@@ -16770,7 +17626,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:6">
       <c r="A472" s="8" t="s">
         <v>1596</v>
       </c>
@@ -16781,7 +17637,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:6">
       <c r="A473" s="8" t="s">
         <v>1598</v>
       </c>
@@ -16792,7 +17648,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:6">
       <c r="A474" s="8" t="s">
         <v>1600</v>
       </c>
@@ -16803,7 +17659,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="475" spans="1:3" s="10" customFormat="1">
+    <row r="475" spans="1:6" s="10" customFormat="1">
       <c r="A475" s="9" t="s">
         <v>1602</v>
       </c>
@@ -16813,8 +17669,17 @@
       <c r="C475" s="10" t="s">
         <v>2481</v>
       </c>
-    </row>
-    <row r="476" spans="1:3">
+      <c r="D475" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E475" s="13" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F475" s="13" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
       <c r="A476" s="8" t="s">
         <v>1604</v>
       </c>
@@ -16825,7 +17690,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:6">
       <c r="A477" s="8" t="s">
         <v>1606</v>
       </c>
@@ -16836,7 +17701,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:6">
       <c r="A478" s="8" t="s">
         <v>1608</v>
       </c>
@@ -16847,7 +17712,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:6">
       <c r="A479" s="8" t="s">
         <v>1610</v>
       </c>
@@ -16858,7 +17723,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:6">
       <c r="A480" s="8" t="s">
         <v>1612</v>
       </c>
@@ -17871,7 +18736,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:6">
       <c r="A577" s="8" t="s">
         <v>1803</v>
       </c>
@@ -17882,7 +18747,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:6">
       <c r="A578" s="8" t="s">
         <v>1805</v>
       </c>
@@ -17893,7 +18758,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:6">
       <c r="A579" s="8" t="s">
         <v>1807</v>
       </c>
@@ -17904,7 +18769,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:6">
       <c r="A580" s="8" t="s">
         <v>1809</v>
       </c>
@@ -17915,7 +18780,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:6">
       <c r="A581" s="8" t="s">
         <v>1811</v>
       </c>
@@ -17926,7 +18791,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:6">
       <c r="A582" s="8" t="s">
         <v>1813</v>
       </c>
@@ -17937,7 +18802,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:6">
       <c r="A583" s="8" t="s">
         <v>1815</v>
       </c>
@@ -17948,7 +18813,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:6">
       <c r="A584" s="8" t="s">
         <v>1817</v>
       </c>
@@ -17959,7 +18824,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:6">
       <c r="A585" s="8" t="s">
         <v>1819</v>
       </c>
@@ -17970,7 +18835,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:6">
       <c r="A586" s="8" t="s">
         <v>1821</v>
       </c>
@@ -17981,7 +18846,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:6">
       <c r="A587" s="8" t="s">
         <v>642</v>
       </c>
@@ -17992,7 +18857,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:6">
       <c r="A588" s="8" t="s">
         <v>1824</v>
       </c>
@@ -18003,7 +18868,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:6">
       <c r="A589" s="8" t="s">
         <v>1826</v>
       </c>
@@ -18014,7 +18879,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="590" spans="1:3" s="10" customFormat="1">
+    <row r="590" spans="1:6" s="10" customFormat="1">
       <c r="A590" s="9" t="s">
         <v>1828</v>
       </c>
@@ -18024,8 +18889,17 @@
       <c r="C590" s="10" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="591" spans="1:3" s="10" customFormat="1">
+      <c r="D590" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E590" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F590" s="10" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" s="10" customFormat="1">
       <c r="A591" s="9" t="s">
         <v>1830</v>
       </c>
@@ -18035,8 +18909,17 @@
       <c r="C591" s="10" t="s">
         <v>2576</v>
       </c>
-    </row>
-    <row r="592" spans="1:3" s="10" customFormat="1">
+      <c r="D591" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E591" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F591" s="10" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" s="10" customFormat="1">
       <c r="A592" s="9" t="s">
         <v>1832</v>
       </c>
@@ -18045,6 +18928,15 @@
       </c>
       <c r="C592" s="10" t="s">
         <v>2577</v>
+      </c>
+      <c r="D592" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E592" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F592" s="10" t="s">
+        <v>2688</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -19278,6 +20170,347 @@
       </c>
       <c r="B709" t="s">
         <v>2064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="18" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="18" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="18" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>2873</v>
       </c>
     </row>
   </sheetData>
@@ -19563,10 +20796,10 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19753,6 +20986,618 @@
       <c r="G8" t="s">
         <v>649</v>
       </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F9">
+        <v>655017</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2704</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F16">
+        <v>91058</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F20">
+        <v>50192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2710</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F22">
+        <v>37073</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2749</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F24">
+        <v>17489</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2761</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2765</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F27">
+        <v>12843</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2774</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F28">
+        <v>70599</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2780</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F30">
+        <v>27002</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F31">
+        <v>85354</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F34">
+        <v>80055</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F35">
+        <v>81100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C36" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2815</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F37">
+        <v>33140</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2828</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="1300" windowWidth="25080" windowHeight="15500" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="2640" yWindow="720" windowWidth="24480" windowHeight="14940" tabRatio="815" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="2888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="2912">
   <si>
     <t>Country</t>
   </si>
@@ -8766,12 +8766,84 @@
   <si>
     <t xml:space="preserve">CD=((4*CWTRAD)/RTSR) + 2*CWTRAD </t>
   </si>
+  <si>
+    <t>eww</t>
+  </si>
+  <si>
+    <t>lww</t>
+  </si>
+  <si>
+    <t>ewd</t>
+  </si>
+  <si>
+    <t>lwd</t>
+  </si>
+  <si>
+    <t>mxd</t>
+  </si>
+  <si>
+    <t>mnd</t>
+  </si>
+  <si>
+    <t>rvgi</t>
+  </si>
+  <si>
+    <t>rvsf</t>
+  </si>
+  <si>
+    <t>rgsgv</t>
+  </si>
+  <si>
+    <t>ring_width</t>
+  </si>
+  <si>
+    <t>ring_area</t>
+  </si>
+  <si>
+    <t>RA   -   Ring area [mm2], in tree cores without extrapolation to sector limits (-&gt; net area), in circular samples with extrapolation to sector limits, even if outside of image</t>
+  </si>
+  <si>
+    <t>MRW   -   Mean ring width [microns], corrected for inclined ring boundaries</t>
+  </si>
+  <si>
+    <t>RVGI   -   Vessel Grouping Index per annual rings: Mean number of cells per group (solitary cells are also considered as a group; vgl. Carlquist 2001); Error codes: -9999 - grouping analysis not performed (NA or double cell wall thickness set to 0); -999 - user aborted this analysis; -99 - ROXAS aborted this analysis during batch processing</t>
+  </si>
+  <si>
+    <t>RVSF   -   Vessel Solitary Fraction per annual rings: Fraction of solitary cells with respect to all cells [%]; Error codes: -9999 - grouping analysis not performed (NA or double cell wall thickness set to 0); -999 - user aborted this analysis; -99 - ROXAS aborted this analysis during batch processing</t>
+  </si>
+  <si>
+    <t>RGSGV   -   Mean group size of grouped / non-solitary cells per annual rings; Error codes: -9999 - grouping analysis not performed (NA or double cell wall thickness set to 0); -999 - user aborted this analysis; -99 - ROXAS aborted this analysis during batch processing</t>
+  </si>
+  <si>
+    <t>CNo   -   Number of cells</t>
+  </si>
+  <si>
+    <t>CD   -   Cell density [no./mm2]</t>
+  </si>
+  <si>
+    <t>CTA   -   Cummulative area of all counted cells [mm2]; (cell transsectional area)</t>
+  </si>
+  <si>
+    <t>RCTA   -   Percentage of conductive area; VTA / RA [%]</t>
+  </si>
+  <si>
+    <t>Dh   -   Mean hydraulic diameter per ring: (sum((2*(cell lumen area/PI)^0.5)^5) / (sum((2*(cell lumen area/PI)^0.5)^4); Kolb KJ, Sperry JS. 1999. Transport constraints on water use by the Great Basin shrub, Artemisia tridentata. Plant, Cell and Environment 22: 925-935</t>
+  </si>
+  <si>
+    <t>Kh   -   Accumulated Potential hydraulic conductance [m3*s-1*MPa-1] as approximated by Poiseuille's law and adjusted to elliptical tubes</t>
+  </si>
+  <si>
+    <t>Ks   -   Xylem-specific potential hydraulic conductivity for annual ring [m2*s-1*MPa-1] assuming a tube length of 1 m: Kh/RA (RA in m2)</t>
+  </si>
+  <si>
+    <t>mm2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8857,6 +8929,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -8887,7 +8964,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -8972,8 +9049,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -9005,8 +9084,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9086,6 +9170,8 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -12455,7 +12541,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F709"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20185,10 +20271,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20511,6 +20597,126 @@
       </c>
       <c r="B32" s="17" t="s">
         <v>2873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="20" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="17" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="17" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="17" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="17" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="17" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="17" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="20" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="20" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="20" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" s="19" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" s="19" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" s="19" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" s="19" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="19" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="19" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="19" t="s">
+        <v>2908</v>
       </c>
     </row>
   </sheetData>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuv/Documents/work/projects/2018 fonti xcell/xcell_db/db_create/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{06055CA2-B565-4645-8BF7-C4AF22BF0232}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F8FD9B72-514A-6F49-AFD6-CC5AF64DB018}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1080" windowWidth="27560" windowHeight="16280" tabRatio="815" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1020" windowWidth="27560" windowHeight="16280" tabRatio="815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="2935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="2941">
   <si>
     <t>Afganistan</t>
   </si>
@@ -8929,6 +8929,24 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>aspect of the site location</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>slope of the site</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -12289,7 +12307,7 @@
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -21634,10 +21652,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21758,8 +21776,32 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2939</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="815" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="815" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -8690,9 +8690,6 @@
     <t>double cell wall thickness on the radial direction (radial file)</t>
   </si>
   <si>
-    <t>band-width</t>
-  </si>
-  <si>
     <t>"Y" if only EW has been measured (e.g. for vessels in ring-porous species)</t>
   </si>
   <si>
@@ -8941,6 +8938,9 @@
   </si>
   <si>
     <t>2cwtrad</t>
+  </si>
+  <si>
+    <t>band_width</t>
   </si>
 </sst>
 </file>
@@ -9805,7 +9805,7 @@
         <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12100,8 +12100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12112,7 +12112,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2808</v>
@@ -12146,7 +12146,7 @@
         <v>2805</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>2822</v>
@@ -12160,7 +12160,7 @@
         <v>2809</v>
       </c>
       <c r="C4" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D4" t="s">
         <v>2815</v>
@@ -12174,7 +12174,7 @@
         <v>2810</v>
       </c>
       <c r="C5" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D5" t="s">
         <v>2821</v>
@@ -12185,7 +12185,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C6" t="s">
         <v>2756</v>
@@ -12202,10 +12202,10 @@
         <v>2811</v>
       </c>
       <c r="C7" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="D7" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12216,7 +12216,7 @@
         <v>2812</v>
       </c>
       <c r="C8" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D8" t="s">
         <v>2817</v>
@@ -12230,7 +12230,7 @@
         <v>2813</v>
       </c>
       <c r="C9" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D9" t="s">
         <v>2818</v>
@@ -12244,7 +12244,7 @@
         <v>2814</v>
       </c>
       <c r="C10" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D10" t="s">
         <v>2819</v>
@@ -12269,13 +12269,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D12" t="s">
         <v>2882</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2918</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2883</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12283,13 +12283,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2864</v>
+        <v>2940</v>
       </c>
       <c r="C13" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D13" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
   </sheetData>
@@ -12311,7 +12311,7 @@
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -12322,7 +12322,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2808</v>
@@ -12373,7 +12373,7 @@
         <v>2754</v>
       </c>
       <c r="D4" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12387,7 +12387,7 @@
         <v>2754</v>
       </c>
       <c r="D5" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12401,7 +12401,7 @@
         <v>2756</v>
       </c>
       <c r="D6" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12415,7 +12415,7 @@
         <v>2756</v>
       </c>
       <c r="D7" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12429,7 +12429,7 @@
         <v>2756</v>
       </c>
       <c r="D8" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12443,7 +12443,7 @@
         <v>2756</v>
       </c>
       <c r="D9" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12639,7 +12639,7 @@
         <v>2754</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12653,7 +12653,7 @@
         <v>2754</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12793,7 +12793,7 @@
         <v>2755</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12857,7 +12857,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C39" t="s">
         <v>2754</v>
@@ -12877,7 +12877,7 @@
         <v>2756</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12891,7 +12891,7 @@
         <v>2756</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12905,7 +12905,7 @@
         <v>2755</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -12933,7 +12933,7 @@
         <v>2756</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -12947,7 +12947,7 @@
         <v>2756</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12961,7 +12961,7 @@
         <v>2756</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -13045,7 +13045,7 @@
         <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2583</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B41" t="s">
         <v>651</v>
@@ -14717,7 +14717,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="7" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B153" t="s">
         <v>874</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="7" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B177" t="s">
         <v>922</v>
@@ -15481,7 +15481,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="7" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B226" t="s">
         <v>1018</v>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="7" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B251" t="s">
         <v>1066</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="7" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B487" t="s">
         <v>1533</v>
@@ -18378,7 +18378,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="7" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B488" t="s">
         <v>1535</v>
@@ -18411,7 +18411,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="7" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B491" t="s">
         <v>1541</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="7" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B546" t="s">
         <v>1648</v>
@@ -19950,7 +19950,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="7" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B635" t="s">
         <v>1824</v>
@@ -20158,7 +20158,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="7" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B655" t="s">
         <v>1863</v>
@@ -20765,7 +20765,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>511</v>
@@ -20832,7 +20832,7 @@
         <v>528</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>506</v>
@@ -21669,7 +21669,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2808</v>
@@ -21689,10 +21689,10 @@
         <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D2" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21706,7 +21706,7 @@
         <v>2756</v>
       </c>
       <c r="D3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21720,7 +21720,7 @@
         <v>2756</v>
       </c>
       <c r="D4" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21734,7 +21734,7 @@
         <v>2756</v>
       </c>
       <c r="D5" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -21745,10 +21745,10 @@
         <v>2827</v>
       </c>
       <c r="C6" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D6" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -21759,10 +21759,10 @@
         <v>2826</v>
       </c>
       <c r="C7" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D7" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -21773,10 +21773,10 @@
         <v>2825</v>
       </c>
       <c r="C8" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D8" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21784,13 +21784,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>2919</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>2920</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2921</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -21798,13 +21798,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D10" t="s">
         <v>2922</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2924</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2923</v>
       </c>
     </row>
   </sheetData>
@@ -21830,7 +21830,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2808</v>
@@ -21853,7 +21853,7 @@
         <v>2756</v>
       </c>
       <c r="D2" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21864,10 +21864,10 @@
         <v>2828</v>
       </c>
       <c r="C3" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D3" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21878,10 +21878,10 @@
         <v>2829</v>
       </c>
       <c r="C4" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D4" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21892,10 +21892,10 @@
         <v>2830</v>
       </c>
       <c r="C5" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D5" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
   </sheetData>
@@ -21926,7 +21926,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2808</v>
@@ -21943,13 +21943,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2756</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1">
@@ -21963,7 +21963,7 @@
         <v>2756</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21974,10 +21974,10 @@
         <v>2831</v>
       </c>
       <c r="C4" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D4" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21988,10 +21988,10 @@
         <v>2832</v>
       </c>
       <c r="C5" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D5" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="26" customFormat="1">
@@ -22002,10 +22002,10 @@
         <v>2850</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
   </sheetData>
@@ -22038,10 +22038,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2793</v>
@@ -22056,7 +22056,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C2" t="s">
         <v>2796</v>
@@ -22070,7 +22070,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C3" t="s">
         <v>2796</v>
@@ -22084,7 +22084,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C4" t="s">
         <v>2796</v>
@@ -22098,13 +22098,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C5" t="s">
         <v>2796</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -22112,7 +22112,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C6" t="s">
         <v>2796</v>
@@ -22126,7 +22126,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C7" t="s">
         <v>2796</v>
@@ -22155,7 +22155,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C9" t="s">
         <v>2796</v>
@@ -22169,7 +22169,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C10" t="s">
         <v>2796</v>
@@ -22183,7 +22183,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C11" t="s">
         <v>2796</v>
@@ -22197,7 +22197,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C12" t="s">
         <v>2796</v>
@@ -22211,10 +22211,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C13" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D13" t="s">
         <v>2798</v>
@@ -22226,10 +22226,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C14" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>2799</v>
@@ -22241,7 +22241,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C15" t="s">
         <v>2796</v>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="815" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="815" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="2941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="2942">
   <si>
     <t>Afganistan</t>
   </si>
@@ -8199,9 +8199,6 @@
   </si>
   <si>
     <t>dist</t>
-  </si>
-  <si>
-    <t>lum</t>
   </si>
   <si>
     <t>drad</t>
@@ -8941,6 +8938,12 @@
   </si>
   <si>
     <t>band_width</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>la</t>
   </si>
 </sst>
 </file>
@@ -9088,12 +9091,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9269,7 +9277,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="138">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9401,6 +9409,11 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -9805,7 +9818,7 @@
         <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12100,7 +12113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -12112,10 +12125,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -12129,13 +12142,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1">
@@ -12143,13 +12156,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12157,13 +12170,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C4" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D4" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12171,13 +12184,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C5" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D5" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12185,13 +12198,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C6" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D6" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12199,13 +12212,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C7" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D7" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12213,13 +12226,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="C8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D8" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12227,13 +12240,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C9" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D9" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12241,13 +12254,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C10" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D10" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12258,10 +12271,10 @@
         <v>520</v>
       </c>
       <c r="C11" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D11" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12269,13 +12282,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D12" t="s">
         <v>2881</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12283,13 +12296,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C13" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D13" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
   </sheetData>
@@ -12309,10 +12322,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12322,10 +12335,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -12339,13 +12352,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12353,13 +12366,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>2779</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>2792</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12367,13 +12380,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="C4" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D4" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12381,13 +12394,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C5" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D5" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12395,13 +12408,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D6" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12409,13 +12422,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D7" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12423,13 +12436,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D8" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12437,13 +12450,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D9" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12451,13 +12464,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12465,13 +12478,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12479,13 +12492,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12493,13 +12506,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12507,13 +12520,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C14" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12521,13 +12534,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12535,13 +12548,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12552,10 +12565,10 @@
         <v>2716</v>
       </c>
       <c r="C17" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12566,10 +12579,10 @@
         <v>2717</v>
       </c>
       <c r="C18" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12580,10 +12593,10 @@
         <v>2718</v>
       </c>
       <c r="C19" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -12594,10 +12607,10 @@
         <v>2719</v>
       </c>
       <c r="C20" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12608,10 +12621,10 @@
         <v>2720</v>
       </c>
       <c r="C21" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12619,13 +12632,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C22" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12633,13 +12646,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="C23" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12647,13 +12660,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C24" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12661,13 +12674,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="C25" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12675,13 +12688,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C26" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12689,13 +12702,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="C27" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12703,13 +12716,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="C28" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -12717,13 +12730,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="C29" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -12731,13 +12744,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="C30" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -12745,13 +12758,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="C31" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -12759,13 +12772,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C32" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -12773,13 +12786,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="C33" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -12787,13 +12800,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>2721</v>
+        <v>2941</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12801,13 +12814,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -12815,13 +12828,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -12829,13 +12842,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -12843,13 +12856,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -12857,13 +12870,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C39" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -12871,13 +12884,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12885,13 +12898,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12899,13 +12912,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -12913,13 +12926,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -12927,13 +12940,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -12941,13 +12954,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12955,13 +12968,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12969,13 +12982,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C47" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -12983,13 +12996,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C48" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12997,13 +13010,27 @@
         <v>48</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C49" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>2789</v>
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>2743</v>
       </c>
     </row>
   </sheetData>
@@ -13045,7 +13072,7 @@
         <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2583</v>
@@ -13491,7 +13518,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B41" t="s">
         <v>651</v>
@@ -14717,7 +14744,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="7" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B153" t="s">
         <v>874</v>
@@ -14978,7 +15005,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="7" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B177" t="s">
         <v>922</v>
@@ -15481,7 +15508,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="7" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B226" t="s">
         <v>1018</v>
@@ -15771,7 +15798,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="7" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B251" t="s">
         <v>1066</v>
@@ -18367,7 +18394,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="7" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B487" t="s">
         <v>1533</v>
@@ -18378,7 +18405,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="7" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B488" t="s">
         <v>1535</v>
@@ -18411,7 +18438,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="7" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B491" t="s">
         <v>1541</v>
@@ -18983,7 +19010,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="7" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B546" t="s">
         <v>1648</v>
@@ -19950,7 +19977,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="7" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B635" t="s">
         <v>1824</v>
@@ -20158,7 +20185,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="7" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B655" t="s">
         <v>1863</v>
@@ -20765,7 +20792,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>511</v>
@@ -20832,7 +20859,7 @@
         <v>528</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>506</v>
@@ -20935,7 +20962,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B6" t="s">
         <v>551</v>
@@ -20981,7 +21008,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B8" t="s">
         <v>567</v>
@@ -21041,7 +21068,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B11" t="s">
         <v>2595</v>
@@ -21095,7 +21122,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B14" t="s">
         <v>2598</v>
@@ -21112,7 +21139,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B15" t="s">
         <v>2599</v>
@@ -21129,7 +21156,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B16" t="s">
         <v>2600</v>
@@ -21169,7 +21196,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B18" t="s">
         <v>2639</v>
@@ -21240,7 +21267,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B22" t="s">
         <v>2709</v>
@@ -21283,7 +21310,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="B24" t="s">
         <v>2649</v>
@@ -21329,7 +21356,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B26" t="s">
         <v>2663</v>
@@ -21349,7 +21376,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B27" t="s">
         <v>2667</v>
@@ -21372,7 +21399,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B28" t="s">
         <v>2670</v>
@@ -21418,7 +21445,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B30" t="s">
         <v>2679</v>
@@ -21498,7 +21525,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>2698</v>
@@ -21561,7 +21588,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B37" t="s">
         <v>2711</v>
@@ -21669,10 +21696,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -21689,10 +21716,10 @@
         <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D2" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21703,10 +21730,10 @@
         <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21717,10 +21744,10 @@
         <v>547</v>
       </c>
       <c r="C4" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21731,10 +21758,10 @@
         <v>548</v>
       </c>
       <c r="C5" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D5" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -21742,13 +21769,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="C6" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D6" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -21756,13 +21783,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C7" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D7" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -21770,13 +21797,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D8" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21784,13 +21811,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>2918</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>2919</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2920</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -21798,13 +21825,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D10" t="s">
         <v>2921</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2923</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2922</v>
       </c>
     </row>
   </sheetData>
@@ -21830,10 +21857,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -21847,13 +21874,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="C2" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21861,13 +21888,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C3" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D3" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21875,13 +21902,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C4" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D4" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21889,13 +21916,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C5" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D5" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
   </sheetData>
@@ -21926,10 +21953,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2715</v>
@@ -21943,13 +21970,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1">
@@ -21957,13 +21984,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21971,13 +21998,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C4" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D4" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21985,13 +22012,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C5" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D5" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="26" customFormat="1">
@@ -21999,13 +22026,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
   </sheetData>
@@ -22038,13 +22065,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>521</v>
@@ -22056,10 +22083,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C2" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>522</v>
@@ -22070,10 +22097,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C3" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>523</v>
@@ -22084,10 +22111,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C4" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>524</v>
@@ -22098,13 +22125,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C5" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -22112,10 +22139,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C6" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>526</v>
@@ -22126,13 +22153,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C7" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22140,10 +22167,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C8" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>571</v>
@@ -22155,10 +22182,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C9" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>522</v>
@@ -22169,10 +22196,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C10" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>523</v>
@@ -22183,10 +22210,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C11" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>524</v>
@@ -22197,10 +22224,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C12" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>525</v>
@@ -22211,13 +22238,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C13" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="D13" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F13" s="20"/>
     </row>
@@ -22226,13 +22253,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C14" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -22241,13 +22268,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C15" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>2796</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>2797</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -22256,13 +22283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C16" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D16" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -22270,13 +22297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C17" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D17" t="s">
         <v>2801</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2802</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -22284,13 +22311,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C18" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D18" t="s">
         <v>2803</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2804</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="815" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="815" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="2942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="2942">
   <si>
     <t>Afganistan</t>
   </si>
@@ -8455,13 +8455,7 @@
     <t>hardware</t>
   </si>
   <si>
-    <t>anatomy</t>
-  </si>
-  <si>
     <t>Radiodensitometry</t>
-  </si>
-  <si>
-    <t>photography</t>
   </si>
   <si>
     <t>Lignovision</t>
@@ -8944,6 +8938,12 @@
   </si>
   <si>
     <t>la</t>
+  </si>
+  <si>
+    <t>light microscope</t>
+  </si>
+  <si>
+    <t>confocal microscope</t>
   </si>
 </sst>
 </file>
@@ -9091,12 +9091,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="138">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9277,7 +9284,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="138">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9414,6 +9421,13 @@
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -9818,7 +9832,7 @@
         <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12125,10 +12139,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -12142,13 +12156,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2755</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1">
@@ -12156,13 +12170,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12170,13 +12184,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="C4" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="D4" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12184,13 +12198,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="C5" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="D5" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12198,13 +12212,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="C6" t="s">
         <v>2755</v>
       </c>
       <c r="D6" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12212,13 +12226,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="C7" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="D7" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12226,13 +12240,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="C8" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D8" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12240,13 +12254,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="C9" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D9" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12254,13 +12268,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="C10" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D10" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12274,7 +12288,7 @@
         <v>2755</v>
       </c>
       <c r="D11" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12282,13 +12296,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="C12" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="D12" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12296,13 +12310,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="C13" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="D13" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
     </row>
   </sheetData>
@@ -12324,7 +12338,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -12335,10 +12349,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -12386,7 +12400,7 @@
         <v>2753</v>
       </c>
       <c r="D4" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12400,7 +12414,7 @@
         <v>2753</v>
       </c>
       <c r="D5" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12414,7 +12428,7 @@
         <v>2755</v>
       </c>
       <c r="D6" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12428,7 +12442,7 @@
         <v>2755</v>
       </c>
       <c r="D7" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12442,7 +12456,7 @@
         <v>2755</v>
       </c>
       <c r="D8" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12456,7 +12470,7 @@
         <v>2755</v>
       </c>
       <c r="D9" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12506,7 +12520,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>2758</v>
@@ -12520,10 +12534,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="C14" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>2785</v>
@@ -12534,7 +12548,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>2791</v>
@@ -12548,10 +12562,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>2787</v>
@@ -12652,7 +12666,7 @@
         <v>2753</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12666,7 +12680,7 @@
         <v>2753</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12800,13 +12814,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>2754</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12862,7 +12876,7 @@
         <v>2754</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -12870,13 +12884,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="C39" t="s">
         <v>2753</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -12890,7 +12904,7 @@
         <v>2755</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12904,7 +12918,7 @@
         <v>2755</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12912,13 +12926,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>2754</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -12946,7 +12960,7 @@
         <v>2755</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -12960,7 +12974,7 @@
         <v>2755</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12974,7 +12988,7 @@
         <v>2755</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12982,10 +12996,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="C47" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>2789</v>
@@ -12996,10 +13010,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="C48" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>2790</v>
@@ -13010,7 +13024,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="C49" t="s">
         <v>2753</v>
@@ -13024,7 +13038,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="C50" t="s">
         <v>2755</v>
@@ -13072,7 +13086,7 @@
         <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2583</v>
@@ -13518,7 +13532,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="B41" t="s">
         <v>651</v>
@@ -14744,7 +14758,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="7" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="B153" t="s">
         <v>874</v>
@@ -15005,7 +15019,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="7" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="B177" t="s">
         <v>922</v>
@@ -15508,7 +15522,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="7" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="B226" t="s">
         <v>1018</v>
@@ -15798,7 +15812,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="7" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="B251" t="s">
         <v>1066</v>
@@ -18394,7 +18408,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="7" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="B487" t="s">
         <v>1533</v>
@@ -18405,7 +18419,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="7" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="B488" t="s">
         <v>1535</v>
@@ -18438,7 +18452,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="7" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="B491" t="s">
         <v>1541</v>
@@ -19010,7 +19024,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="7" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="B546" t="s">
         <v>1648</v>
@@ -19977,7 +19991,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="7" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="B635" t="s">
         <v>1824</v>
@@ -20185,7 +20199,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="7" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="B655" t="s">
         <v>1863</v>
@@ -20792,7 +20806,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>511</v>
@@ -20859,7 +20873,7 @@
         <v>528</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>506</v>
@@ -20962,7 +20976,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="B6" t="s">
         <v>551</v>
@@ -21008,7 +21022,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="B8" t="s">
         <v>567</v>
@@ -21068,7 +21082,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="B11" t="s">
         <v>2595</v>
@@ -21122,7 +21136,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="B14" t="s">
         <v>2598</v>
@@ -21139,7 +21153,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="B15" t="s">
         <v>2599</v>
@@ -21156,7 +21170,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="B16" t="s">
         <v>2600</v>
@@ -21196,7 +21210,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="B18" t="s">
         <v>2639</v>
@@ -21267,7 +21281,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="B22" t="s">
         <v>2709</v>
@@ -21310,7 +21324,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="B24" t="s">
         <v>2649</v>
@@ -21356,7 +21370,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="B26" t="s">
         <v>2663</v>
@@ -21376,7 +21390,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="B27" t="s">
         <v>2667</v>
@@ -21399,7 +21413,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="B28" t="s">
         <v>2670</v>
@@ -21445,7 +21459,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="B30" t="s">
         <v>2679</v>
@@ -21525,7 +21539,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>2698</v>
@@ -21588,7 +21602,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="B37" t="s">
         <v>2711</v>
@@ -21696,10 +21710,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -21716,10 +21730,10 @@
         <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="D2" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21733,7 +21747,7 @@
         <v>2755</v>
       </c>
       <c r="D3" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21747,7 +21761,7 @@
         <v>2755</v>
       </c>
       <c r="D4" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21761,7 +21775,7 @@
         <v>2755</v>
       </c>
       <c r="D5" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -21769,13 +21783,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="C6" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D6" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -21783,13 +21797,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="C7" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D7" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -21797,13 +21811,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="C8" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D8" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21811,13 +21825,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D9" t="s">
         <v>2917</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>2918</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2919</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -21825,13 +21839,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C10" t="s">
         <v>2920</v>
       </c>
-      <c r="C10" t="s">
-        <v>2922</v>
-      </c>
       <c r="D10" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
     </row>
   </sheetData>
@@ -21857,10 +21871,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -21874,13 +21888,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="C2" t="s">
         <v>2755</v>
       </c>
       <c r="D2" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21888,13 +21902,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="C3" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="D3" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21902,13 +21916,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="C4" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="D4" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21916,13 +21930,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="C5" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="D5" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
   </sheetData>
@@ -21953,10 +21967,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2715</v>
@@ -21970,13 +21984,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2755</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1">
@@ -21984,13 +21998,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>2755</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21998,13 +22012,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="C4" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="D4" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22012,13 +22026,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C5" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="D5" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="26" customFormat="1">
@@ -22026,13 +22040,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
   </sheetData>
@@ -22048,10 +22062,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22065,10 +22079,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2792</v>
@@ -22083,10 +22097,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C2" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>522</v>
@@ -22097,10 +22111,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C3" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>523</v>
@@ -22111,10 +22125,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C4" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>524</v>
@@ -22125,13 +22139,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C5" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -22139,10 +22153,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="C6" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>526</v>
@@ -22153,13 +22167,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="C7" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22167,10 +22181,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2793</v>
+        <v>2863</v>
       </c>
       <c r="C8" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>571</v>
@@ -22182,10 +22196,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="C9" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>522</v>
@@ -22196,10 +22210,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="C10" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>523</v>
@@ -22210,10 +22224,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="C11" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>524</v>
@@ -22224,10 +22238,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="C12" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>525</v>
@@ -22238,13 +22252,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="C13" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="D13" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="F13" s="20"/>
     </row>
@@ -22253,13 +22267,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="C14" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -22268,13 +22282,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="C15" t="s">
-        <v>2795</v>
+        <v>2940</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -22283,13 +22297,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C16" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="D16" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -22297,13 +22311,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C17" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="D17" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -22311,13 +22325,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C18" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="D18" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -22334,11 +22348,103 @@
         <v>527</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
     <row r="21" spans="1:4">
-      <c r="D21" s="19"/>
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="D22" s="19"/>
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>571</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="2942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="2942">
   <si>
     <t>Afganistan</t>
   </si>
@@ -9091,12 +9091,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9284,7 +9286,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9428,6 +9430,8 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -22062,9 +22066,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -22446,6 +22450,20 @@
         <v>571</v>
       </c>
     </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D27" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="2942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="2942">
   <si>
     <t>Afganistan</t>
   </si>
@@ -9091,12 +9091,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9286,7 +9289,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="150">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9432,6 +9435,9 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -22066,10 +22072,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22464,6 +22470,20 @@
         <v>523</v>
       </c>
     </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>2867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -8455,9 +8455,6 @@
     <t>hardware</t>
   </si>
   <si>
-    <t>Radiodensitometry</t>
-  </si>
-  <si>
     <t>Lignovision</t>
   </si>
   <si>
@@ -8944,6 +8941,9 @@
   </si>
   <si>
     <t>confocal microscope</t>
+  </si>
+  <si>
+    <t>radiodensitometry</t>
   </si>
 </sst>
 </file>
@@ -9091,12 +9091,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="150">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9289,7 +9290,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="150">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9438,6 +9439,7 @@
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -9842,7 +9844,7 @@
         <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12149,10 +12151,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -12166,13 +12168,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2755</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1">
@@ -12180,13 +12182,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12194,13 +12196,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="C4" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D4" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12208,13 +12210,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="C5" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D5" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12222,13 +12224,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C6" t="s">
         <v>2755</v>
       </c>
       <c r="D6" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12236,13 +12238,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C7" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D7" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12250,13 +12252,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C8" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D8" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12264,13 +12266,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C9" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D9" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12278,13 +12280,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C10" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D10" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12298,7 +12300,7 @@
         <v>2755</v>
       </c>
       <c r="D11" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12306,13 +12308,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D12" t="s">
         <v>2878</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2914</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2879</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12320,13 +12322,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="C13" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D13" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
   </sheetData>
@@ -12359,10 +12361,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -12410,7 +12412,7 @@
         <v>2753</v>
       </c>
       <c r="D4" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12424,7 +12426,7 @@
         <v>2753</v>
       </c>
       <c r="D5" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12438,7 +12440,7 @@
         <v>2755</v>
       </c>
       <c r="D6" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12452,7 +12454,7 @@
         <v>2755</v>
       </c>
       <c r="D7" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12466,7 +12468,7 @@
         <v>2755</v>
       </c>
       <c r="D8" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12480,7 +12482,7 @@
         <v>2755</v>
       </c>
       <c r="D9" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12530,7 +12532,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>2758</v>
@@ -12544,10 +12546,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C14" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>2785</v>
@@ -12558,7 +12560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>2791</v>
@@ -12572,10 +12574,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>2787</v>
@@ -12676,7 +12678,7 @@
         <v>2753</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12690,7 +12692,7 @@
         <v>2753</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12824,13 +12826,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>2754</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12886,7 +12888,7 @@
         <v>2754</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -12894,13 +12896,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="C39" t="s">
         <v>2753</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -12914,7 +12916,7 @@
         <v>2755</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12928,7 +12930,7 @@
         <v>2755</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12936,13 +12938,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>2754</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -12970,7 +12972,7 @@
         <v>2755</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -12984,7 +12986,7 @@
         <v>2755</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12998,7 +13000,7 @@
         <v>2755</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -13006,10 +13008,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C47" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>2789</v>
@@ -13020,10 +13022,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C48" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>2790</v>
@@ -13034,7 +13036,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="C49" t="s">
         <v>2753</v>
@@ -13048,7 +13050,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="C50" t="s">
         <v>2755</v>
@@ -13096,7 +13098,7 @@
         <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2583</v>
@@ -13542,7 +13544,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B41" t="s">
         <v>651</v>
@@ -14768,7 +14770,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="7" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B153" t="s">
         <v>874</v>
@@ -15029,7 +15031,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="7" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B177" t="s">
         <v>922</v>
@@ -15532,7 +15534,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="7" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B226" t="s">
         <v>1018</v>
@@ -15822,7 +15824,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="7" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B251" t="s">
         <v>1066</v>
@@ -18418,7 +18420,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="7" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B487" t="s">
         <v>1533</v>
@@ -18429,7 +18431,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="7" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B488" t="s">
         <v>1535</v>
@@ -18462,7 +18464,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="7" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B491" t="s">
         <v>1541</v>
@@ -19034,7 +19036,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="7" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B546" t="s">
         <v>1648</v>
@@ -20001,7 +20003,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="7" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B635" t="s">
         <v>1824</v>
@@ -20209,7 +20211,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="7" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B655" t="s">
         <v>1863</v>
@@ -20816,7 +20818,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>511</v>
@@ -20883,7 +20885,7 @@
         <v>528</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>506</v>
@@ -20986,7 +20988,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B6" t="s">
         <v>551</v>
@@ -21032,7 +21034,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B8" t="s">
         <v>567</v>
@@ -21092,7 +21094,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B11" t="s">
         <v>2595</v>
@@ -21146,7 +21148,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B14" t="s">
         <v>2598</v>
@@ -21163,7 +21165,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B15" t="s">
         <v>2599</v>
@@ -21180,7 +21182,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B16" t="s">
         <v>2600</v>
@@ -21220,7 +21222,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B18" t="s">
         <v>2639</v>
@@ -21291,7 +21293,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B22" t="s">
         <v>2709</v>
@@ -21334,7 +21336,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B24" t="s">
         <v>2649</v>
@@ -21380,7 +21382,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B26" t="s">
         <v>2663</v>
@@ -21400,7 +21402,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B27" t="s">
         <v>2667</v>
@@ -21423,7 +21425,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="B28" t="s">
         <v>2670</v>
@@ -21469,7 +21471,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B30" t="s">
         <v>2679</v>
@@ -21549,7 +21551,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>2698</v>
@@ -21612,7 +21614,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B37" t="s">
         <v>2711</v>
@@ -21720,10 +21722,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -21740,10 +21742,10 @@
         <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D2" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21757,7 +21759,7 @@
         <v>2755</v>
       </c>
       <c r="D3" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21771,7 +21773,7 @@
         <v>2755</v>
       </c>
       <c r="D4" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21785,7 +21787,7 @@
         <v>2755</v>
       </c>
       <c r="D5" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -21793,13 +21795,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C6" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D6" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -21807,13 +21809,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="C7" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D7" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -21821,13 +21823,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="C8" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D8" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21835,13 +21837,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>2915</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>2916</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2917</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -21849,13 +21851,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D10" t="s">
         <v>2918</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2920</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2919</v>
       </c>
     </row>
   </sheetData>
@@ -21881,10 +21883,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2715</v>
@@ -21898,13 +21900,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C2" t="s">
         <v>2755</v>
       </c>
       <c r="D2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21912,13 +21914,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C3" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D3" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -21926,13 +21928,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C4" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D4" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21940,13 +21942,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="C5" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D5" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
   </sheetData>
@@ -21977,10 +21979,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2715</v>
@@ -21994,13 +21996,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2755</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1">
@@ -22008,13 +22010,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>2755</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22022,13 +22024,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C4" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D4" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22036,13 +22038,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C5" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D5" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="26" customFormat="1">
@@ -22050,13 +22052,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
   </sheetData>
@@ -22075,7 +22077,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22089,10 +22091,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2792</v>
@@ -22107,10 +22109,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C2" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>522</v>
@@ -22121,10 +22123,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C3" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>523</v>
@@ -22135,10 +22137,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C4" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>524</v>
@@ -22149,13 +22151,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C5" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -22163,10 +22165,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C6" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>526</v>
@@ -22177,13 +22179,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C7" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22191,10 +22193,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C8" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>571</v>
@@ -22206,10 +22208,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C9" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>522</v>
@@ -22220,10 +22222,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C10" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>523</v>
@@ -22234,10 +22236,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C11" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>524</v>
@@ -22248,10 +22250,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C12" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>525</v>
@@ -22262,13 +22264,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C13" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="D13" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F13" s="20"/>
     </row>
@@ -22277,13 +22279,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C14" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -22292,13 +22294,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C15" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -22307,13 +22309,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2793</v>
+        <v>2941</v>
       </c>
       <c r="C16" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D16" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -22321,13 +22323,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2793</v>
+        <v>2941</v>
       </c>
       <c r="C17" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D17" t="s">
         <v>2798</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -22335,13 +22337,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2793</v>
+        <v>2941</v>
       </c>
       <c r="C18" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D18" t="s">
         <v>2800</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2801</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -22363,10 +22365,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C20" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>522</v>
@@ -22377,10 +22379,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C21" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>523</v>
@@ -22391,10 +22393,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C22" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>524</v>
@@ -22405,13 +22407,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C23" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -22419,10 +22421,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C24" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>526</v>
@@ -22433,13 +22435,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C25" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -22447,10 +22449,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C26" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>571</v>
@@ -22461,10 +22463,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C27" t="s">
         <v>2865</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2866</v>
       </c>
       <c r="D27" t="s">
         <v>523</v>
@@ -22475,13 +22477,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C28" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
   </sheetData>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="815" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="2942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="2953">
   <si>
     <t>Afganistan</t>
   </si>
@@ -8944,6 +8944,39 @@
   </si>
   <si>
     <t>radiodensitometry</t>
+  </si>
+  <si>
+    <t>University of Campagna</t>
+  </si>
+  <si>
+    <t>Ucamp</t>
+  </si>
+  <si>
+    <t>Universite Laval</t>
+  </si>
+  <si>
+    <t>Ulava</t>
+  </si>
+  <si>
+    <t>avenue de la Médecine Local 4054</t>
+  </si>
+  <si>
+    <t>QC G1V 0A6</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Département de biologie</t>
+  </si>
+  <si>
+    <t>via Vivaldi 43</t>
+  </si>
+  <si>
+    <t>manip</t>
+  </si>
+  <si>
+    <t>is the tree undergoing manipulation?</t>
   </si>
 </sst>
 </file>
@@ -9091,12 +9124,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9290,7 +9331,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9440,6 +9481,14 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -12350,8 +12399,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13076,11 +13125,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F709"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B546" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A664" sqref="A664"/>
+      <selection pane="bottomRight" activeCell="D415" sqref="D415:F482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13088,6 +13137,7 @@
     <col min="1" max="1" width="13.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="47.6640625" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13120,6 +13170,15 @@
       <c r="C2" t="s">
         <v>1971</v>
       </c>
+      <c r="D2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
@@ -13151,6 +13210,15 @@
       <c r="C4" t="s">
         <v>1973</v>
       </c>
+      <c r="D4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
@@ -13162,6 +13230,15 @@
       <c r="C5" t="s">
         <v>1974</v>
       </c>
+      <c r="D5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
@@ -13173,6 +13250,15 @@
       <c r="C6" t="s">
         <v>1975</v>
       </c>
+      <c r="D6" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
@@ -13184,6 +13270,15 @@
       <c r="C7" t="s">
         <v>1976</v>
       </c>
+      <c r="D7" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
@@ -13195,6 +13290,15 @@
       <c r="C8" t="s">
         <v>1977</v>
       </c>
+      <c r="D8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -13206,6 +13310,15 @@
       <c r="C9" t="s">
         <v>1978</v>
       </c>
+      <c r="D9" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -13217,6 +13330,15 @@
       <c r="C10" t="s">
         <v>1979</v>
       </c>
+      <c r="D10" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
@@ -13228,6 +13350,15 @@
       <c r="C11" t="s">
         <v>1980</v>
       </c>
+      <c r="D11" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
@@ -13239,6 +13370,15 @@
       <c r="C12" t="s">
         <v>1981</v>
       </c>
+      <c r="D12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
@@ -13247,6 +13387,15 @@
       <c r="B13" t="s">
         <v>595</v>
       </c>
+      <c r="D13" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -13258,6 +13407,15 @@
       <c r="C14" t="s">
         <v>1982</v>
       </c>
+      <c r="D14" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
@@ -13269,6 +13427,15 @@
       <c r="C15" t="s">
         <v>1983</v>
       </c>
+      <c r="D15" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
@@ -13280,8 +13447,17 @@
       <c r="C16" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>602</v>
       </c>
@@ -13291,8 +13467,17 @@
       <c r="C17" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>604</v>
       </c>
@@ -13302,8 +13487,17 @@
       <c r="C18" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
         <v>606</v>
       </c>
@@ -13313,8 +13507,17 @@
       <c r="C19" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>608</v>
       </c>
@@ -13324,8 +13527,17 @@
       <c r="C20" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>610</v>
       </c>
@@ -13335,8 +13547,17 @@
       <c r="C21" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>612</v>
       </c>
@@ -13346,8 +13567,17 @@
       <c r="C22" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
         <v>614</v>
       </c>
@@ -13357,8 +13587,17 @@
       <c r="C23" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>616</v>
       </c>
@@ -13368,8 +13607,17 @@
       <c r="C24" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>618</v>
       </c>
@@ -13379,8 +13627,17 @@
       <c r="C25" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>620</v>
       </c>
@@ -13390,8 +13647,17 @@
       <c r="C26" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
         <v>622</v>
       </c>
@@ -13401,8 +13667,17 @@
       <c r="C27" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
         <v>624</v>
       </c>
@@ -13412,8 +13687,17 @@
       <c r="C28" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
         <v>626</v>
       </c>
@@ -13423,8 +13707,17 @@
       <c r="C29" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
         <v>628</v>
       </c>
@@ -13434,8 +13727,17 @@
       <c r="C30" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="7" t="s">
         <v>630</v>
       </c>
@@ -13445,8 +13747,17 @@
       <c r="C31" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
         <v>632</v>
       </c>
@@ -13455,6 +13766,15 @@
       </c>
       <c r="C32" t="s">
         <v>2000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2587</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -13467,6 +13787,15 @@
       <c r="C33" t="s">
         <v>2001</v>
       </c>
+      <c r="D33" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
@@ -13478,6 +13807,15 @@
       <c r="C34" t="s">
         <v>2002</v>
       </c>
+      <c r="D34" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
@@ -13489,6 +13827,15 @@
       <c r="C35" t="s">
         <v>2003</v>
       </c>
+      <c r="D35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
@@ -13500,6 +13847,15 @@
       <c r="C36" t="s">
         <v>2004</v>
       </c>
+      <c r="D36" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="7" t="s">
@@ -13511,6 +13867,15 @@
       <c r="C37" t="s">
         <v>2005</v>
       </c>
+      <c r="D37" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="7" t="s">
@@ -13522,6 +13887,15 @@
       <c r="C38" t="s">
         <v>2006</v>
       </c>
+      <c r="D38" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
@@ -13533,6 +13907,15 @@
       <c r="C39" t="s">
         <v>2007</v>
       </c>
+      <c r="D39" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="7" t="s">
@@ -14143,7 +14526,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:6">
       <c r="A97" s="7" t="s">
         <v>761</v>
       </c>
@@ -14154,7 +14537,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:6">
       <c r="A98" s="7" t="s">
         <v>763</v>
       </c>
@@ -14165,7 +14548,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:6">
       <c r="A99" s="7" t="s">
         <v>765</v>
       </c>
@@ -14176,7 +14559,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:6">
       <c r="A100" s="7" t="s">
         <v>767</v>
       </c>
@@ -14187,7 +14570,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:6">
       <c r="A101" s="7" t="s">
         <v>769</v>
       </c>
@@ -14198,7 +14581,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:6">
       <c r="A102" s="7" t="s">
         <v>771</v>
       </c>
@@ -14209,7 +14592,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:6">
       <c r="A103" s="7" t="s">
         <v>773</v>
       </c>
@@ -14220,7 +14603,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:6">
       <c r="A104" s="7" t="s">
         <v>775</v>
       </c>
@@ -14231,7 +14614,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:6">
       <c r="A105" s="7" t="s">
         <v>777</v>
       </c>
@@ -14242,7 +14625,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:6">
       <c r="A106" s="7" t="s">
         <v>779</v>
       </c>
@@ -14253,7 +14636,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:6">
       <c r="A107" s="7" t="s">
         <v>781</v>
       </c>
@@ -14264,7 +14647,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:6">
       <c r="A108" s="7" t="s">
         <v>783</v>
       </c>
@@ -14275,7 +14658,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:6">
       <c r="A109" s="7" t="s">
         <v>785</v>
       </c>
@@ -14286,7 +14669,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:6">
       <c r="A110" s="7" t="s">
         <v>787</v>
       </c>
@@ -14296,8 +14679,17 @@
       <c r="C110" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="7" t="s">
         <v>789</v>
       </c>
@@ -14307,8 +14699,17 @@
       <c r="C111" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F111" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="7" t="s">
         <v>791</v>
       </c>
@@ -14317,6 +14718,15 @@
       </c>
       <c r="C112" t="s">
         <v>2069</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2588</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -14329,6 +14739,15 @@
       <c r="C113" t="s">
         <v>2070</v>
       </c>
+      <c r="D113" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="7" t="s">
@@ -14340,6 +14759,15 @@
       <c r="C114" t="s">
         <v>2071</v>
       </c>
+      <c r="D114" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F114" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="7" t="s">
@@ -14351,6 +14779,15 @@
       <c r="C115" t="s">
         <v>2072</v>
       </c>
+      <c r="D115" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F115" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="7" t="s">
@@ -14362,6 +14799,15 @@
       <c r="C116" t="s">
         <v>2073</v>
       </c>
+      <c r="D116" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F116" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="7" t="s">
@@ -14373,6 +14819,15 @@
       <c r="C117" t="s">
         <v>2074</v>
       </c>
+      <c r="D117" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="7" t="s">
@@ -14384,6 +14839,15 @@
       <c r="C118" t="s">
         <v>2075</v>
       </c>
+      <c r="D118" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="7" t="s">
@@ -14395,6 +14859,15 @@
       <c r="C119" t="s">
         <v>2076</v>
       </c>
+      <c r="D119" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="120" spans="1:6" s="9" customFormat="1">
       <c r="A120" s="8" t="s">
@@ -14403,13 +14876,13 @@
       <c r="B120" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" t="s">
         <v>2589</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" t="s">
         <v>2590</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -14423,6 +14896,15 @@
       <c r="C121" t="s">
         <v>2077</v>
       </c>
+      <c r="D121" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F121" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="7" t="s">
@@ -14434,6 +14916,15 @@
       <c r="C122" t="s">
         <v>2078</v>
       </c>
+      <c r="D122" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="7" t="s">
@@ -14445,6 +14936,15 @@
       <c r="C123" t="s">
         <v>2079</v>
       </c>
+      <c r="D123" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="7" t="s">
@@ -14456,6 +14956,15 @@
       <c r="C124" t="s">
         <v>2080</v>
       </c>
+      <c r="D124" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="7" t="s">
@@ -14467,6 +14976,15 @@
       <c r="C125" t="s">
         <v>2081</v>
       </c>
+      <c r="D125" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F125" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="7" t="s">
@@ -15521,7 +16039,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:6">
       <c r="A225" s="7" t="s">
         <v>1015</v>
       </c>
@@ -15532,7 +16050,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:6">
       <c r="A226" s="7" t="s">
         <v>2895</v>
       </c>
@@ -15540,7 +16058,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:6">
       <c r="A227" s="7" t="s">
         <v>1019</v>
       </c>
@@ -15551,7 +16069,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:6">
       <c r="A228" s="7" t="s">
         <v>1017</v>
       </c>
@@ -15562,7 +16080,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:6">
       <c r="A229" s="7" t="s">
         <v>1022</v>
       </c>
@@ -15573,7 +16091,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:6">
       <c r="A230" s="7" t="s">
         <v>1024</v>
       </c>
@@ -15584,7 +16102,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:6">
       <c r="A231" s="7" t="s">
         <v>1026</v>
       </c>
@@ -15594,8 +16112,17 @@
       <c r="C231" t="s">
         <v>2168</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E231" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F231" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="7" t="s">
         <v>1028</v>
       </c>
@@ -15605,8 +16132,17 @@
       <c r="C232" t="s">
         <v>2169</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E232" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F232" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="7" t="s">
         <v>1030</v>
       </c>
@@ -15616,8 +16152,17 @@
       <c r="C233" t="s">
         <v>2170</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E233" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F233" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="7" t="s">
         <v>1032</v>
       </c>
@@ -15627,8 +16172,17 @@
       <c r="C234" t="s">
         <v>2171</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E234" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F234" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="7" t="s">
         <v>1034</v>
       </c>
@@ -15638,8 +16192,17 @@
       <c r="C235" t="s">
         <v>2172</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E235" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F235" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="7" t="s">
         <v>1036</v>
       </c>
@@ -15649,8 +16212,17 @@
       <c r="C236" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E236" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F236" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="7" t="s">
         <v>1038</v>
       </c>
@@ -15660,8 +16232,17 @@
       <c r="C237" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E237" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F237" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="7" t="s">
         <v>1040</v>
       </c>
@@ -15671,8 +16252,17 @@
       <c r="C238" t="s">
         <v>2175</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E238" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F238" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="7" t="s">
         <v>1042</v>
       </c>
@@ -15682,8 +16272,17 @@
       <c r="C239" t="s">
         <v>2176</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E239" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F239" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="7" t="s">
         <v>1044</v>
       </c>
@@ -15692,6 +16291,15 @@
       </c>
       <c r="C240" t="s">
         <v>2177</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E240" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F240" t="s">
+        <v>2588</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -15704,6 +16312,15 @@
       <c r="C241" t="s">
         <v>2178</v>
       </c>
+      <c r="D241" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E241" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F241" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="7" t="s">
@@ -16579,6 +17196,15 @@
       <c r="C320" t="s">
         <v>2248</v>
       </c>
+      <c r="D320" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F320" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="321" spans="1:6" s="9" customFormat="1">
       <c r="A321" s="8" t="s">
@@ -16630,6 +17256,15 @@
       <c r="C323" t="s">
         <v>2251</v>
       </c>
+      <c r="D323" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E323" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F323" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="7" t="s">
@@ -16641,6 +17276,15 @@
       <c r="C324" t="s">
         <v>2252</v>
       </c>
+      <c r="D324" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F324" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="7" t="s">
@@ -16652,6 +17296,15 @@
       <c r="C325" t="s">
         <v>2253</v>
       </c>
+      <c r="D325" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E325" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F325" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="7" t="s">
@@ -16663,6 +17316,15 @@
       <c r="C326" t="s">
         <v>2254</v>
       </c>
+      <c r="D326" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F326" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="7" t="s">
@@ -16674,6 +17336,15 @@
       <c r="C327" t="s">
         <v>2255</v>
       </c>
+      <c r="D327" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F327" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="7" t="s">
@@ -16685,6 +17356,15 @@
       <c r="C328" t="s">
         <v>2256</v>
       </c>
+      <c r="D328" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E328" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F328" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="329" spans="1:6" s="9" customFormat="1">
       <c r="A329" s="8" t="s">
@@ -17366,6 +18046,15 @@
       <c r="C391" t="s">
         <v>2310</v>
       </c>
+      <c r="D391" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E391" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F391" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="392" spans="1:6" s="9" customFormat="1">
       <c r="A392" s="8" t="s">
@@ -17397,6 +18086,15 @@
       <c r="C393" t="s">
         <v>2312</v>
       </c>
+      <c r="D393" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E393" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F393" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="7" t="s">
@@ -17405,6 +18103,15 @@
       <c r="B394" t="s">
         <v>1349</v>
       </c>
+      <c r="D394" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F394" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="7" t="s">
@@ -17413,6 +18120,15 @@
       <c r="B395" t="s">
         <v>1351</v>
       </c>
+      <c r="D395" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E395" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F395" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="7" t="s">
@@ -17421,6 +18137,15 @@
       <c r="B396" t="s">
         <v>1353</v>
       </c>
+      <c r="D396" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F396" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="7" t="s">
@@ -17432,6 +18157,15 @@
       <c r="C397" t="s">
         <v>2313</v>
       </c>
+      <c r="D397" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E397" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F397" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="7" t="s">
@@ -17443,6 +18177,15 @@
       <c r="C398" t="s">
         <v>2314</v>
       </c>
+      <c r="D398" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E398" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F398" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="7" t="s">
@@ -17454,6 +18197,15 @@
       <c r="C399" t="s">
         <v>2315</v>
       </c>
+      <c r="D399" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E399" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F399" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="7" t="s">
@@ -17465,6 +18217,15 @@
       <c r="C400" t="s">
         <v>2316</v>
       </c>
+      <c r="D400" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E400" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F400" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="7" t="s">
@@ -17476,6 +18237,15 @@
       <c r="C401" t="s">
         <v>2317</v>
       </c>
+      <c r="D401" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E401" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F401" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="7" t="s">
@@ -17487,6 +18257,15 @@
       <c r="C402" t="s">
         <v>2318</v>
       </c>
+      <c r="D402" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F402" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="7" t="s">
@@ -17498,6 +18277,15 @@
       <c r="C403" t="s">
         <v>2319</v>
       </c>
+      <c r="D403" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E403" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F403" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="404" spans="1:6" s="9" customFormat="1">
       <c r="A404" s="10" t="s">
@@ -17526,6 +18314,15 @@
       <c r="C405" t="s">
         <v>2320</v>
       </c>
+      <c r="D405" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E405" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F405" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="7" t="s">
@@ -17537,6 +18334,15 @@
       <c r="C406" t="s">
         <v>2321</v>
       </c>
+      <c r="D406" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E406" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F406" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="7" t="s">
@@ -17548,6 +18354,15 @@
       <c r="C407" t="s">
         <v>2322</v>
       </c>
+      <c r="D407" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E407" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F407" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="7" t="s">
@@ -17556,6 +18371,15 @@
       <c r="B408" t="s">
         <v>1375</v>
       </c>
+      <c r="D408" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E408" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F408" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="7" t="s">
@@ -17567,6 +18391,15 @@
       <c r="C409" t="s">
         <v>2323</v>
       </c>
+      <c r="D409" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E409" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F409" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="7" t="s">
@@ -17578,6 +18411,15 @@
       <c r="C410" t="s">
         <v>2324</v>
       </c>
+      <c r="D410" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E410" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F410" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="7" t="s">
@@ -17589,6 +18431,15 @@
       <c r="C411" t="s">
         <v>2325</v>
       </c>
+      <c r="D411" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E411" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F411" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="7" t="s">
@@ -17600,6 +18451,15 @@
       <c r="C412" t="s">
         <v>2326</v>
       </c>
+      <c r="D412" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E412" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F412" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="7" t="s">
@@ -17611,6 +18471,15 @@
       <c r="C413" t="s">
         <v>2327</v>
       </c>
+      <c r="D413" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E413" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F413" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="7" t="s">
@@ -17633,6 +18502,15 @@
       <c r="C415" t="s">
         <v>2056</v>
       </c>
+      <c r="D415" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E415" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F415" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="7" t="s">
@@ -17644,8 +18522,17 @@
       <c r="C416" t="s">
         <v>2329</v>
       </c>
-    </row>
-    <row r="417" spans="1:3">
+      <c r="D416" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E416" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F416" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417" s="7" t="s">
         <v>1392</v>
       </c>
@@ -17655,8 +18542,17 @@
       <c r="C417" t="s">
         <v>2330</v>
       </c>
-    </row>
-    <row r="418" spans="1:3">
+      <c r="D417" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E417" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F417" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418" s="7" t="s">
         <v>1394</v>
       </c>
@@ -17666,8 +18562,17 @@
       <c r="C418" t="s">
         <v>2331</v>
       </c>
-    </row>
-    <row r="419" spans="1:3">
+      <c r="D418" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E418" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F418" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419" s="7" t="s">
         <v>1396</v>
       </c>
@@ -17677,8 +18582,17 @@
       <c r="C419" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="420" spans="1:3">
+      <c r="D419" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E419" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F419" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420" s="7" t="s">
         <v>1398</v>
       </c>
@@ -17688,8 +18602,17 @@
       <c r="C420" t="s">
         <v>2333</v>
       </c>
-    </row>
-    <row r="421" spans="1:3">
+      <c r="D420" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E420" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F420" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421" s="7" t="s">
         <v>1400</v>
       </c>
@@ -17699,8 +18622,17 @@
       <c r="C421" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="422" spans="1:3">
+      <c r="D421" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E421" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F421" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422" s="7" t="s">
         <v>1402</v>
       </c>
@@ -17710,8 +18642,17 @@
       <c r="C422" t="s">
         <v>2335</v>
       </c>
-    </row>
-    <row r="423" spans="1:3">
+      <c r="D422" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E422" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F422" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423" s="7" t="s">
         <v>1404</v>
       </c>
@@ -17721,8 +18662,17 @@
       <c r="C423" t="s">
         <v>2336</v>
       </c>
-    </row>
-    <row r="424" spans="1:3">
+      <c r="D423" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E423" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F423" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424" s="7" t="s">
         <v>1406</v>
       </c>
@@ -17732,8 +18682,17 @@
       <c r="C424" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="425" spans="1:3">
+      <c r="D424" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E424" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F424" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425" s="7" t="s">
         <v>1408</v>
       </c>
@@ -17743,8 +18702,17 @@
       <c r="C425" t="s">
         <v>2338</v>
       </c>
-    </row>
-    <row r="426" spans="1:3">
+      <c r="D425" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E425" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F425" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426" s="7" t="s">
         <v>1410</v>
       </c>
@@ -17754,8 +18722,17 @@
       <c r="C426" t="s">
         <v>2339</v>
       </c>
-    </row>
-    <row r="427" spans="1:3">
+      <c r="D426" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E426" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F426" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
       <c r="A427" s="7" t="s">
         <v>1412</v>
       </c>
@@ -17765,8 +18742,17 @@
       <c r="C427" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="428" spans="1:3">
+      <c r="D427" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E427" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F427" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
       <c r="A428" s="7" t="s">
         <v>1414</v>
       </c>
@@ -17776,8 +18762,17 @@
       <c r="C428" t="s">
         <v>2341</v>
       </c>
-    </row>
-    <row r="429" spans="1:3">
+      <c r="D428" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E428" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F428" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
       <c r="A429" s="7" t="s">
         <v>1416</v>
       </c>
@@ -17787,16 +18782,34 @@
       <c r="C429" t="s">
         <v>2342</v>
       </c>
-    </row>
-    <row r="430" spans="1:3">
+      <c r="D429" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E429" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F429" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430" s="7" t="s">
         <v>1418</v>
       </c>
       <c r="B430" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="431" spans="1:3">
+      <c r="D430" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E430" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F430" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
       <c r="A431" s="7" t="s">
         <v>1420</v>
       </c>
@@ -17806,8 +18819,17 @@
       <c r="C431" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="432" spans="1:3">
+      <c r="D431" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E431" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F431" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
       <c r="A432" s="7" t="s">
         <v>1422</v>
       </c>
@@ -17817,8 +18839,17 @@
       <c r="C432" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="433" spans="1:3">
+      <c r="D432" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E432" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F432" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
       <c r="A433" s="7" t="s">
         <v>1424</v>
       </c>
@@ -17828,8 +18859,17 @@
       <c r="C433" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="434" spans="1:3">
+      <c r="D433" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E433" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F433" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
       <c r="A434" s="7" t="s">
         <v>1426</v>
       </c>
@@ -17839,8 +18879,17 @@
       <c r="C434" t="s">
         <v>2346</v>
       </c>
-    </row>
-    <row r="435" spans="1:3">
+      <c r="D434" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E434" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F434" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
       <c r="A435" s="7" t="s">
         <v>1428</v>
       </c>
@@ -17850,8 +18899,17 @@
       <c r="C435" t="s">
         <v>2347</v>
       </c>
-    </row>
-    <row r="436" spans="1:3">
+      <c r="D435" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E435" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F435" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436" s="7" t="s">
         <v>1430</v>
       </c>
@@ -17861,8 +18919,17 @@
       <c r="C436" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="437" spans="1:3">
+      <c r="D436" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E436" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F436" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437" s="7" t="s">
         <v>1432</v>
       </c>
@@ -17872,8 +18939,17 @@
       <c r="C437" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="438" spans="1:3">
+      <c r="D437" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E437" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F437" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
       <c r="A438" s="7" t="s">
         <v>1434</v>
       </c>
@@ -17883,8 +18959,17 @@
       <c r="C438" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="439" spans="1:3">
+      <c r="D438" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E438" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F438" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
       <c r="A439" s="7" t="s">
         <v>1436</v>
       </c>
@@ -17894,8 +18979,17 @@
       <c r="C439" t="s">
         <v>2351</v>
       </c>
-    </row>
-    <row r="440" spans="1:3">
+      <c r="D439" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E439" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F439" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
       <c r="A440" s="7" t="s">
         <v>1438</v>
       </c>
@@ -17905,8 +18999,17 @@
       <c r="C440" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="441" spans="1:3">
+      <c r="D440" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E440" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F440" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
       <c r="A441" s="7" t="s">
         <v>1440</v>
       </c>
@@ -17916,8 +19019,17 @@
       <c r="C441" t="s">
         <v>2353</v>
       </c>
-    </row>
-    <row r="442" spans="1:3">
+      <c r="D441" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E441" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F441" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
       <c r="A442" s="7" t="s">
         <v>1442</v>
       </c>
@@ -17927,8 +19039,17 @@
       <c r="C442" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="443" spans="1:3">
+      <c r="D442" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E442" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F442" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
       <c r="A443" s="7" t="s">
         <v>1444</v>
       </c>
@@ -17938,8 +19059,17 @@
       <c r="C443" t="s">
         <v>2355</v>
       </c>
-    </row>
-    <row r="444" spans="1:3">
+      <c r="D443" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E443" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
       <c r="A444" s="7" t="s">
         <v>1446</v>
       </c>
@@ -17949,8 +19079,17 @@
       <c r="C444" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="445" spans="1:3">
+      <c r="D444" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E444" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F444" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
       <c r="A445" s="7" t="s">
         <v>1448</v>
       </c>
@@ -17960,8 +19099,17 @@
       <c r="C445" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="446" spans="1:3">
+      <c r="D445" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E445" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F445" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
       <c r="A446" s="7" t="s">
         <v>1450</v>
       </c>
@@ -17971,8 +19119,17 @@
       <c r="C446" t="s">
         <v>2358</v>
       </c>
-    </row>
-    <row r="447" spans="1:3">
+      <c r="D446" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E446" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F446" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447" s="7" t="s">
         <v>1452</v>
       </c>
@@ -17982,8 +19139,17 @@
       <c r="C447" t="s">
         <v>2359</v>
       </c>
-    </row>
-    <row r="448" spans="1:3">
+      <c r="D447" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E447" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F447" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
       <c r="A448" s="7" t="s">
         <v>1454</v>
       </c>
@@ -17993,8 +19159,17 @@
       <c r="C448" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="449" spans="1:3">
+      <c r="D448" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E448" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F448" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
       <c r="A449" s="7" t="s">
         <v>1456</v>
       </c>
@@ -18004,8 +19179,17 @@
       <c r="C449" t="s">
         <v>2361</v>
       </c>
-    </row>
-    <row r="450" spans="1:3">
+      <c r="D449" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E449" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F449" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450" s="7" t="s">
         <v>1458</v>
       </c>
@@ -18015,8 +19199,17 @@
       <c r="C450" t="s">
         <v>2362</v>
       </c>
-    </row>
-    <row r="451" spans="1:3">
+      <c r="D450" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E450" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F450" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
       <c r="A451" s="7" t="s">
         <v>1460</v>
       </c>
@@ -18026,8 +19219,17 @@
       <c r="C451" t="s">
         <v>2363</v>
       </c>
-    </row>
-    <row r="452" spans="1:3">
+      <c r="D451" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E451" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F451" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
       <c r="A452" s="7" t="s">
         <v>1462</v>
       </c>
@@ -18037,8 +19239,17 @@
       <c r="C452" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="453" spans="1:3">
+      <c r="D452" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E452" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F452" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
       <c r="A453" s="7" t="s">
         <v>1464</v>
       </c>
@@ -18048,8 +19259,17 @@
       <c r="C453" t="s">
         <v>2365</v>
       </c>
-    </row>
-    <row r="454" spans="1:3">
+      <c r="D453" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E453" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F453" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
       <c r="A454" s="7" t="s">
         <v>1466</v>
       </c>
@@ -18059,8 +19279,17 @@
       <c r="C454" t="s">
         <v>2366</v>
       </c>
-    </row>
-    <row r="455" spans="1:3">
+      <c r="D454" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E454" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F454" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
       <c r="A455" s="7" t="s">
         <v>1468</v>
       </c>
@@ -18070,8 +19299,17 @@
       <c r="C455" t="s">
         <v>2367</v>
       </c>
-    </row>
-    <row r="456" spans="1:3">
+      <c r="D455" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E455" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F455" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
       <c r="A456" s="7" t="s">
         <v>1470</v>
       </c>
@@ -18081,8 +19319,17 @@
       <c r="C456" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="457" spans="1:3">
+      <c r="D456" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E456" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F456" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457" s="7" t="s">
         <v>1472</v>
       </c>
@@ -18092,8 +19339,17 @@
       <c r="C457" t="s">
         <v>2369</v>
       </c>
-    </row>
-    <row r="458" spans="1:3">
+      <c r="D457" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E457" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F457" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
       <c r="A458" s="7" t="s">
         <v>1474</v>
       </c>
@@ -18103,8 +19359,17 @@
       <c r="C458" t="s">
         <v>2370</v>
       </c>
-    </row>
-    <row r="459" spans="1:3">
+      <c r="D458" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E458" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F458" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
       <c r="A459" s="7" t="s">
         <v>1476</v>
       </c>
@@ -18114,8 +19379,17 @@
       <c r="C459" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="460" spans="1:3">
+      <c r="D459" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E459" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F459" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
       <c r="A460" s="7" t="s">
         <v>1478</v>
       </c>
@@ -18125,8 +19399,17 @@
       <c r="C460" t="s">
         <v>2372</v>
       </c>
-    </row>
-    <row r="461" spans="1:3">
+      <c r="D460" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E460" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F460" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
       <c r="A461" s="7" t="s">
         <v>1480</v>
       </c>
@@ -18136,8 +19419,17 @@
       <c r="C461" t="s">
         <v>2373</v>
       </c>
-    </row>
-    <row r="462" spans="1:3">
+      <c r="D461" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E461" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F461" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
       <c r="A462" s="7" t="s">
         <v>1482</v>
       </c>
@@ -18147,8 +19439,17 @@
       <c r="C462" t="s">
         <v>2374</v>
       </c>
-    </row>
-    <row r="463" spans="1:3">
+      <c r="D462" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E462" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F462" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
       <c r="A463" s="7" t="s">
         <v>1484</v>
       </c>
@@ -18158,8 +19459,17 @@
       <c r="C463" t="s">
         <v>2375</v>
       </c>
-    </row>
-    <row r="464" spans="1:3">
+      <c r="D463" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E463" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F463" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
       <c r="A464" s="7" t="s">
         <v>1486</v>
       </c>
@@ -18168,6 +19478,15 @@
       </c>
       <c r="C464" t="s">
         <v>2376</v>
+      </c>
+      <c r="D464" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E464" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F464" s="12" t="s">
+        <v>2587</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -18180,6 +19499,15 @@
       <c r="C465" t="s">
         <v>2377</v>
       </c>
+      <c r="D465" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E465" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F465" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="7" t="s">
@@ -18191,6 +19519,15 @@
       <c r="C466" t="s">
         <v>2378</v>
       </c>
+      <c r="D466" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E466" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F466" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="7" t="s">
@@ -18202,6 +19539,15 @@
       <c r="C467" t="s">
         <v>2379</v>
       </c>
+      <c r="D467" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E467" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F467" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="7" t="s">
@@ -18213,6 +19559,15 @@
       <c r="C468" t="s">
         <v>2380</v>
       </c>
+      <c r="D468" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E468" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F468" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="7" t="s">
@@ -18224,6 +19579,15 @@
       <c r="C469" t="s">
         <v>2381</v>
       </c>
+      <c r="D469" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E469" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F469" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="7" t="s">
@@ -18235,6 +19599,15 @@
       <c r="C470" t="s">
         <v>2382</v>
       </c>
+      <c r="D470" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E470" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F470" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="7" t="s">
@@ -18246,6 +19619,15 @@
       <c r="C471" t="s">
         <v>2383</v>
       </c>
+      <c r="D471" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E471" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F471" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="7" t="s">
@@ -18257,6 +19639,15 @@
       <c r="C472" t="s">
         <v>2384</v>
       </c>
+      <c r="D472" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E472" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F472" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="7" t="s">
@@ -18268,6 +19659,15 @@
       <c r="C473" t="s">
         <v>2385</v>
       </c>
+      <c r="D473" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E473" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F473" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="7" t="s">
@@ -18279,6 +19679,15 @@
       <c r="C474" t="s">
         <v>2386</v>
       </c>
+      <c r="D474" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E474" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F474" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="475" spans="1:6" s="9" customFormat="1">
       <c r="A475" s="8" t="s">
@@ -18310,6 +19719,15 @@
       <c r="C476" t="s">
         <v>2388</v>
       </c>
+      <c r="D476" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E476" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F476" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="7" t="s">
@@ -18321,6 +19739,15 @@
       <c r="C477" t="s">
         <v>2389</v>
       </c>
+      <c r="D477" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E477" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F477" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="7" t="s">
@@ -18332,6 +19759,15 @@
       <c r="C478" t="s">
         <v>2390</v>
       </c>
+      <c r="D478" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E478" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F478" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="7" t="s">
@@ -18343,6 +19779,15 @@
       <c r="C479" t="s">
         <v>2391</v>
       </c>
+      <c r="D479" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E479" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F479" s="12" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="7" t="s">
@@ -18354,8 +19799,17 @@
       <c r="C480" t="s">
         <v>2392</v>
       </c>
-    </row>
-    <row r="481" spans="1:3">
+      <c r="D480" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E480" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F480" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
       <c r="A481" s="7" t="s">
         <v>1520</v>
       </c>
@@ -18365,8 +19819,17 @@
       <c r="C481" t="s">
         <v>2393</v>
       </c>
-    </row>
-    <row r="482" spans="1:3">
+      <c r="D481" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E481" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F481" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
       <c r="A482" s="7" t="s">
         <v>1522</v>
       </c>
@@ -18376,8 +19839,17 @@
       <c r="C482" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="483" spans="1:3">
+      <c r="D482" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E482" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F482" s="12" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
       <c r="A483" s="7" t="s">
         <v>1524</v>
       </c>
@@ -18385,7 +19857,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:6">
       <c r="A484" s="7" t="s">
         <v>1526</v>
       </c>
@@ -18396,7 +19868,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:6">
       <c r="A485" s="7" t="s">
         <v>1528</v>
       </c>
@@ -18407,7 +19879,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:6">
       <c r="A486" s="7" t="s">
         <v>1530</v>
       </c>
@@ -18418,7 +19890,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:6">
       <c r="A487" s="7" t="s">
         <v>2898</v>
       </c>
@@ -18429,7 +19901,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:6">
       <c r="A488" s="7" t="s">
         <v>2899</v>
       </c>
@@ -18440,7 +19912,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:6">
       <c r="A489" s="7" t="s">
         <v>1536</v>
       </c>
@@ -18451,7 +19923,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:6">
       <c r="A490" s="7" t="s">
         <v>1538</v>
       </c>
@@ -18462,7 +19934,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:6">
       <c r="A491" s="7" t="s">
         <v>2897</v>
       </c>
@@ -18473,7 +19945,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:6">
       <c r="A492" s="7" t="s">
         <v>1542</v>
       </c>
@@ -18484,7 +19956,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:6">
       <c r="A493" s="7" t="s">
         <v>1540</v>
       </c>
@@ -18495,7 +19967,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:6">
       <c r="A494" s="7" t="s">
         <v>1545</v>
       </c>
@@ -18506,7 +19978,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:6">
       <c r="A495" s="7" t="s">
         <v>1547</v>
       </c>
@@ -18514,7 +19986,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:6">
       <c r="A496" s="7" t="s">
         <v>1549</v>
       </c>
@@ -20866,8 +22338,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21633,6 +23105,52 @@
       </c>
       <c r="G37" t="s">
         <v>2712</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F38">
+        <v>81100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2946</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2947</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2948</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -21873,10 +23391,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21949,6 +23467,20 @@
       </c>
       <c r="D5" t="s">
         <v>2888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2952</v>
       </c>
     </row>
   </sheetData>
@@ -22076,8 +23608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22424,10 +23956,10 @@
         <v>2863</v>
       </c>
       <c r="C24" t="s">
-        <v>2940</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>526</v>
+        <v>2939</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:4">

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="2953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="2953">
   <si>
     <t>Afganistan</t>
   </si>
@@ -9124,12 +9124,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9331,7 +9332,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="160">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9489,6 +9490,7 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -13126,10 +13128,10 @@
   <dimension ref="A1:F709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B572" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D415" sqref="D415:F482"/>
+      <selection pane="bottomRight" activeCell="D593" sqref="D593:F593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20949,6 +20951,15 @@
       <c r="C587" t="s">
         <v>2478</v>
       </c>
+      <c r="D587" s="9" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E587" s="9" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F587" s="9" t="s">
+        <v>2593</v>
+      </c>
     </row>
     <row r="588" spans="1:6">
       <c r="A588" s="7" t="s">
@@ -21032,7 +21043,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:6">
       <c r="A593" s="7" t="s">
         <v>1740</v>
       </c>
@@ -21042,8 +21053,17 @@
       <c r="C593" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="594" spans="1:3">
+      <c r="D593" s="12" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E593" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F593" s="12" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
       <c r="A594" s="7" t="s">
         <v>1742</v>
       </c>
@@ -21054,7 +21074,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:6">
       <c r="A595" s="7" t="s">
         <v>1744</v>
       </c>
@@ -21065,7 +21085,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:6">
       <c r="A596" s="7" t="s">
         <v>1746</v>
       </c>
@@ -21076,7 +21096,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:6">
       <c r="A597" s="7" t="s">
         <v>1748</v>
       </c>
@@ -21087,7 +21107,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:6">
       <c r="A598" s="7" t="s">
         <v>1647</v>
       </c>
@@ -21098,7 +21118,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:6">
       <c r="A599" s="7" t="s">
         <v>1751</v>
       </c>
@@ -21109,7 +21129,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:6">
       <c r="A600" s="7" t="s">
         <v>1753</v>
       </c>
@@ -21120,7 +21140,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:6">
       <c r="A601" s="7" t="s">
         <v>1755</v>
       </c>
@@ -21131,7 +21151,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:6">
       <c r="A602" s="7" t="s">
         <v>1757</v>
       </c>
@@ -21139,7 +21159,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:6">
       <c r="A603" s="7" t="s">
         <v>1759</v>
       </c>
@@ -21150,7 +21170,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:6">
       <c r="A604" s="7" t="s">
         <v>1761</v>
       </c>
@@ -21161,7 +21181,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:6">
       <c r="A605" s="7" t="s">
         <v>1763</v>
       </c>
@@ -21172,7 +21192,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:6">
       <c r="A606" s="7" t="s">
         <v>1765</v>
       </c>
@@ -21183,7 +21203,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:6">
       <c r="A607" s="7" t="s">
         <v>1767</v>
       </c>
@@ -21191,7 +21211,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:6">
       <c r="A608" s="7" t="s">
         <v>1769</v>
       </c>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="815" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="2953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="2958">
   <si>
     <t>Afganistan</t>
   </si>
@@ -8977,6 +8977,21 @@
   </si>
   <si>
     <t>is the tree undergoing manipulation?</t>
+  </si>
+  <si>
+    <t>Slidescanner</t>
+  </si>
+  <si>
+    <t>DACiA</t>
+  </si>
+  <si>
+    <t>tracheid-sector</t>
+  </si>
+  <si>
+    <t>digital microscope</t>
+  </si>
+  <si>
+    <t>NIH image</t>
   </si>
 </sst>
 </file>
@@ -9124,12 +9139,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="160">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9332,7 +9360,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="160">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -9491,6 +9519,19 @@
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -13127,7 +13168,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F709"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B572" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -23626,10 +23667,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24038,6 +24079,104 @@
         <v>2866</v>
       </c>
     </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/db_create/xcell_fk_tables.xlsx
+++ b/db_create/xcell_fk_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="815" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="1540" yWindow="720" windowWidth="25600" windowHeight="16060" tabRatio="815" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="country_fk" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="2958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="2960">
   <si>
     <t>Afganistan</t>
   </si>
@@ -8992,6 +8992,12 @@
   </si>
   <si>
     <t>NIH image</t>
+  </si>
+  <si>
+    <t>n_obs</t>
+  </si>
+  <si>
+    <t>number of observation (e.g.; number of cells in the ring)</t>
   </si>
 </sst>
 </file>
@@ -12440,10 +12446,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13149,6 +13155,20 @@
       </c>
       <c r="D50" s="14" t="s">
         <v>2743</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>2959</v>
       </c>
     </row>
   </sheetData>
@@ -23669,7 +23689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
